--- a/jpcore-r4/feature/注射カテゴリ追加/StructureDefinition-jp-medicationadministration-injection.xlsx
+++ b/jpcore-r4/feature/注射カテゴリ追加/StructureDefinition-jp-medicationadministration-injection.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3854" uniqueCount="585">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3998" uniqueCount="589">
   <si>
     <t>Property</t>
   </si>
@@ -75,7 +75,7 @@
     <t>Jurisdiction</t>
   </si>
   <si>
-    <t>Japan</t>
+    <t>JP</t>
   </si>
   <si>
     <t>Description</t>
@@ -918,13 +918,75 @@
  (http://terminology.hl7.org/CodeSystem/medication-admin-category)</t>
   </si>
   <si>
-    <t>A coded concept describing where the medication administered is expected to occur.</t>
-  </si>
-  <si>
-    <t>http://hl7.org/fhir/ValueSet/medication-admin-category</t>
+    <t>http://jpfhir.jp/fhir/core/CodeSystem/JP_MedicationFeeScoreCategory_VS</t>
   </si>
   <si>
     <t>.inboundRelationship[typeCode=COMP].source[classCode=OBS, moodCode=EVN, code="type of medication usage"].value</t>
+  </si>
+  <si>
+    <t>MedicationAdministration.category.id</t>
+  </si>
+  <si>
+    <t>MedicationAdministration.category.extension</t>
+  </si>
+  <si>
+    <t>MedicationAdministration.category.coding</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Coding
+</t>
+  </si>
+  <si>
+    <t>Code defined by a terminology system</t>
+  </si>
+  <si>
+    <t>A reference to a code defined by a terminology system.</t>
+  </si>
+  <si>
+    <t>Codes may be defined very casually in enumerations, or code lists, up to very formal definitions such as SNOMED CT - see the HL7 v3 Core Principles for more information.  Ordering of codings is undefined and SHALL NOT be used to infer meaning. Generally, at most only one of the coding values will be labeled as UserSelected = true.</t>
+  </si>
+  <si>
+    <t>Allows for alternative encodings within a code system, and translations to other code systems.</t>
+  </si>
+  <si>
+    <t>&lt;valueCoding xmlns="http://hl7.org/fhir"&gt;
+  &lt;system value="http://jpfhir.jp/fhir/core/CodeSystem/JP_MedicationFeeScoreCategory_CS"/&gt;
+  &lt;code value="injection"/&gt;
+  &lt;display value="注射"/&gt;
+&lt;/valueCoding&gt;</t>
+  </si>
+  <si>
+    <t>CodeableConcept.coding</t>
+  </si>
+  <si>
+    <t>union(., ./translation)</t>
+  </si>
+  <si>
+    <t>C*E.1-8, C*E.10-22</t>
+  </si>
+  <si>
+    <t>MedicationAdministration.category.text</t>
+  </si>
+  <si>
+    <t>Plain text representation of the concept</t>
+  </si>
+  <si>
+    <t>A human language representation of the concept as seen/selected/uttered by the user who entered the data and/or which represents the intended meaning of the user.</t>
+  </si>
+  <si>
+    <t>Very often the text is the same as a displayName of one of the codings.</t>
+  </si>
+  <si>
+    <t>The codes from the terminologies do not always capture the correct meaning with all the nuances of the human using them, or sometimes there is no appropriate code at all. In these cases, the text is used to capture the full meaning of the source.</t>
+  </si>
+  <si>
+    <t>CodeableConcept.text</t>
+  </si>
+  <si>
+    <t>./originalText[mediaType/code="text/plain"]/data</t>
+  </si>
+  <si>
+    <t>C*E.9. But note many systems use C*E.2 for this</t>
   </si>
   <si>
     <t>MedicationAdministration.medication[x]</t>
@@ -1467,53 +1529,7 @@
     <t>MedicationAdministration.dosage.site.coding</t>
   </si>
   <si>
-    <t xml:space="preserve">Coding
-</t>
-  </si>
-  <si>
-    <t>Code defined by a terminology system</t>
-  </si>
-  <si>
-    <t>A reference to a code defined by a terminology system.</t>
-  </si>
-  <si>
-    <t>Codes may be defined very casually in enumerations, or code lists, up to very formal definitions such as SNOMED CT - see the HL7 v3 Core Principles for more information.  Ordering of codings is undefined and SHALL NOT be used to infer meaning. Generally, at most only one of the coding values will be labeled as UserSelected = true.</t>
-  </si>
-  <si>
-    <t>Allows for alternative encodings within a code system, and translations to other code systems.</t>
-  </si>
-  <si>
-    <t>CodeableConcept.coding</t>
-  </si>
-  <si>
-    <t>union(., ./translation)</t>
-  </si>
-  <si>
-    <t>C*E.1-8, C*E.10-22</t>
-  </si>
-  <si>
     <t>MedicationAdministration.dosage.site.text</t>
-  </si>
-  <si>
-    <t>Plain text representation of the concept</t>
-  </si>
-  <si>
-    <t>A human language representation of the concept as seen/selected/uttered by the user who entered the data and/or which represents the intended meaning of the user.</t>
-  </si>
-  <si>
-    <t>Very often the text is the same as a displayName of one of the codings.</t>
-  </si>
-  <si>
-    <t>The codes from the terminologies do not always capture the correct meaning with all the nuances of the human using them, or sometimes there is no appropriate code at all. In these cases, the text is used to capture the full meaning of the source.</t>
-  </si>
-  <si>
-    <t>CodeableConcept.text</t>
-  </si>
-  <si>
-    <t>./originalText[mediaType/code="text/plain"]/data</t>
-  </si>
-  <si>
-    <t>C*E.9. But note many systems use C*E.2 for this</t>
   </si>
   <si>
     <t>MedicationAdministration.dosage.route</t>
@@ -2187,7 +2203,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:AN106"/>
+  <dimension ref="A1:AN110"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2.0" ySplit="1.0" state="frozen" topLeftCell="C2" activePane="bottomRight"/>
@@ -6632,13 +6648,11 @@
         <v>78</v>
       </c>
       <c r="W39" t="s" s="2">
-        <v>110</v>
-      </c>
-      <c r="X39" t="s" s="2">
+        <v>195</v>
+      </c>
+      <c r="X39" s="2"/>
+      <c r="Y39" t="s" s="2">
         <v>288</v>
-      </c>
-      <c r="Y39" t="s" s="2">
-        <v>289</v>
       </c>
       <c r="Z39" t="s" s="2">
         <v>78</v>
@@ -6674,7 +6688,7 @@
         <v>78</v>
       </c>
       <c r="AK39" t="s" s="2">
-        <v>290</v>
+        <v>289</v>
       </c>
       <c r="AL39" t="s" s="2">
         <v>78</v>
@@ -6688,7 +6702,7 @@
     </row>
     <row r="40">
       <c r="A40" t="s" s="2">
-        <v>291</v>
+        <v>290</v>
       </c>
       <c r="B40" s="2"/>
       <c r="C40" t="s" s="2">
@@ -6696,7 +6710,7 @@
       </c>
       <c r="D40" s="2"/>
       <c r="E40" t="s" s="2">
-        <v>86</v>
+        <v>79</v>
       </c>
       <c r="F40" t="s" s="2">
         <v>86</v>
@@ -6708,20 +6722,18 @@
         <v>78</v>
       </c>
       <c r="I40" t="s" s="2">
-        <v>87</v>
+        <v>78</v>
       </c>
       <c r="J40" t="s" s="2">
-        <v>292</v>
+        <v>180</v>
       </c>
       <c r="K40" t="s" s="2">
-        <v>293</v>
+        <v>181</v>
       </c>
       <c r="L40" t="s" s="2">
-        <v>294</v>
-      </c>
-      <c r="M40" t="s" s="2">
-        <v>295</v>
-      </c>
+        <v>182</v>
+      </c>
+      <c r="M40" s="2"/>
       <c r="N40" s="2"/>
       <c r="O40" t="s" s="2">
         <v>78</v>
@@ -6758,20 +6770,22 @@
         <v>78</v>
       </c>
       <c r="AA40" t="s" s="2">
-        <v>296</v>
-      </c>
-      <c r="AB40" s="2"/>
+        <v>78</v>
+      </c>
+      <c r="AB40" t="s" s="2">
+        <v>78</v>
+      </c>
       <c r="AC40" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AD40" t="s" s="2">
-        <v>297</v>
+        <v>78</v>
       </c>
       <c r="AE40" t="s" s="2">
-        <v>291</v>
+        <v>183</v>
       </c>
       <c r="AF40" t="s" s="2">
-        <v>86</v>
+        <v>79</v>
       </c>
       <c r="AG40" t="s" s="2">
         <v>86</v>
@@ -6780,19 +6794,19 @@
         <v>78</v>
       </c>
       <c r="AI40" t="s" s="2">
-        <v>98</v>
+        <v>78</v>
       </c>
       <c r="AJ40" t="s" s="2">
-        <v>298</v>
+        <v>78</v>
       </c>
       <c r="AK40" t="s" s="2">
-        <v>299</v>
+        <v>184</v>
       </c>
       <c r="AL40" t="s" s="2">
-        <v>300</v>
+        <v>78</v>
       </c>
       <c r="AM40" t="s" s="2">
-        <v>301</v>
+        <v>78</v>
       </c>
       <c r="AN40" t="s" s="2">
         <v>78</v>
@@ -6802,18 +6816,16 @@
       <c r="A41" t="s" s="2">
         <v>291</v>
       </c>
-      <c r="B41" t="s" s="2">
-        <v>302</v>
-      </c>
+      <c r="B41" s="2"/>
       <c r="C41" t="s" s="2">
-        <v>78</v>
+        <v>160</v>
       </c>
       <c r="D41" s="2"/>
       <c r="E41" t="s" s="2">
-        <v>86</v>
+        <v>79</v>
       </c>
       <c r="F41" t="s" s="2">
-        <v>86</v>
+        <v>80</v>
       </c>
       <c r="G41" t="s" s="2">
         <v>78</v>
@@ -6822,19 +6834,19 @@
         <v>78</v>
       </c>
       <c r="I41" t="s" s="2">
-        <v>87</v>
+        <v>78</v>
       </c>
       <c r="J41" t="s" s="2">
-        <v>303</v>
+        <v>131</v>
       </c>
       <c r="K41" t="s" s="2">
-        <v>293</v>
+        <v>186</v>
       </c>
       <c r="L41" t="s" s="2">
-        <v>294</v>
+        <v>187</v>
       </c>
       <c r="M41" t="s" s="2">
-        <v>295</v>
+        <v>163</v>
       </c>
       <c r="N41" s="2"/>
       <c r="O41" t="s" s="2">
@@ -6872,43 +6884,43 @@
         <v>78</v>
       </c>
       <c r="AA41" t="s" s="2">
-        <v>78</v>
+        <v>134</v>
       </c>
       <c r="AB41" t="s" s="2">
-        <v>78</v>
+        <v>188</v>
       </c>
       <c r="AC41" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AD41" t="s" s="2">
-        <v>78</v>
+        <v>135</v>
       </c>
       <c r="AE41" t="s" s="2">
-        <v>291</v>
+        <v>189</v>
       </c>
       <c r="AF41" t="s" s="2">
-        <v>86</v>
+        <v>79</v>
       </c>
       <c r="AG41" t="s" s="2">
-        <v>86</v>
+        <v>80</v>
       </c>
       <c r="AH41" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AI41" t="s" s="2">
-        <v>98</v>
+        <v>137</v>
       </c>
       <c r="AJ41" t="s" s="2">
-        <v>298</v>
+        <v>78</v>
       </c>
       <c r="AK41" t="s" s="2">
-        <v>299</v>
+        <v>184</v>
       </c>
       <c r="AL41" t="s" s="2">
-        <v>300</v>
+        <v>78</v>
       </c>
       <c r="AM41" t="s" s="2">
-        <v>301</v>
+        <v>78</v>
       </c>
       <c r="AN41" t="s" s="2">
         <v>78</v>
@@ -6916,7 +6928,7 @@
     </row>
     <row r="42">
       <c r="A42" t="s" s="2">
-        <v>304</v>
+        <v>292</v>
       </c>
       <c r="B42" s="2"/>
       <c r="C42" t="s" s="2">
@@ -6924,10 +6936,10 @@
       </c>
       <c r="D42" s="2"/>
       <c r="E42" t="s" s="2">
-        <v>86</v>
+        <v>79</v>
       </c>
       <c r="F42" t="s" s="2">
-        <v>86</v>
+        <v>80</v>
       </c>
       <c r="G42" t="s" s="2">
         <v>78</v>
@@ -6939,18 +6951,20 @@
         <v>87</v>
       </c>
       <c r="J42" t="s" s="2">
-        <v>305</v>
+        <v>293</v>
       </c>
       <c r="K42" t="s" s="2">
-        <v>306</v>
+        <v>294</v>
       </c>
       <c r="L42" t="s" s="2">
-        <v>307</v>
+        <v>295</v>
       </c>
       <c r="M42" t="s" s="2">
-        <v>308</v>
-      </c>
-      <c r="N42" s="2"/>
+        <v>296</v>
+      </c>
+      <c r="N42" t="s" s="2">
+        <v>297</v>
+      </c>
       <c r="O42" t="s" s="2">
         <v>78</v>
       </c>
@@ -6959,7 +6973,7 @@
         <v>78</v>
       </c>
       <c r="R42" t="s" s="2">
-        <v>78</v>
+        <v>298</v>
       </c>
       <c r="S42" t="s" s="2">
         <v>78</v>
@@ -6998,13 +7012,13 @@
         <v>78</v>
       </c>
       <c r="AE42" t="s" s="2">
-        <v>304</v>
+        <v>299</v>
       </c>
       <c r="AF42" t="s" s="2">
-        <v>86</v>
+        <v>79</v>
       </c>
       <c r="AG42" t="s" s="2">
-        <v>86</v>
+        <v>80</v>
       </c>
       <c r="AH42" t="s" s="2">
         <v>78</v>
@@ -7013,16 +7027,16 @@
         <v>98</v>
       </c>
       <c r="AJ42" t="s" s="2">
-        <v>309</v>
+        <v>78</v>
       </c>
       <c r="AK42" t="s" s="2">
-        <v>310</v>
+        <v>300</v>
       </c>
       <c r="AL42" t="s" s="2">
-        <v>311</v>
+        <v>78</v>
       </c>
       <c r="AM42" t="s" s="2">
-        <v>312</v>
+        <v>301</v>
       </c>
       <c r="AN42" t="s" s="2">
         <v>78</v>
@@ -7030,7 +7044,7 @@
     </row>
     <row r="43">
       <c r="A43" t="s" s="2">
-        <v>313</v>
+        <v>302</v>
       </c>
       <c r="B43" s="2"/>
       <c r="C43" t="s" s="2">
@@ -7050,21 +7064,23 @@
         <v>78</v>
       </c>
       <c r="I43" t="s" s="2">
-        <v>78</v>
+        <v>87</v>
       </c>
       <c r="J43" t="s" s="2">
-        <v>314</v>
+        <v>180</v>
       </c>
       <c r="K43" t="s" s="2">
-        <v>315</v>
+        <v>303</v>
       </c>
       <c r="L43" t="s" s="2">
-        <v>316</v>
+        <v>304</v>
       </c>
       <c r="M43" t="s" s="2">
-        <v>308</v>
-      </c>
-      <c r="N43" s="2"/>
+        <v>305</v>
+      </c>
+      <c r="N43" t="s" s="2">
+        <v>306</v>
+      </c>
       <c r="O43" t="s" s="2">
         <v>78</v>
       </c>
@@ -7112,7 +7128,7 @@
         <v>78</v>
       </c>
       <c r="AE43" t="s" s="2">
-        <v>313</v>
+        <v>307</v>
       </c>
       <c r="AF43" t="s" s="2">
         <v>79</v>
@@ -7127,16 +7143,16 @@
         <v>98</v>
       </c>
       <c r="AJ43" t="s" s="2">
-        <v>317</v>
+        <v>78</v>
       </c>
       <c r="AK43" t="s" s="2">
-        <v>318</v>
+        <v>308</v>
       </c>
       <c r="AL43" t="s" s="2">
-        <v>319</v>
+        <v>78</v>
       </c>
       <c r="AM43" t="s" s="2">
-        <v>320</v>
+        <v>309</v>
       </c>
       <c r="AN43" t="s" s="2">
         <v>78</v>
@@ -7144,7 +7160,7 @@
     </row>
     <row r="44">
       <c r="A44" t="s" s="2">
-        <v>321</v>
+        <v>310</v>
       </c>
       <c r="B44" s="2"/>
       <c r="C44" t="s" s="2">
@@ -7152,10 +7168,10 @@
       </c>
       <c r="D44" s="2"/>
       <c r="E44" t="s" s="2">
-        <v>79</v>
+        <v>86</v>
       </c>
       <c r="F44" t="s" s="2">
-        <v>80</v>
+        <v>86</v>
       </c>
       <c r="G44" t="s" s="2">
         <v>78</v>
@@ -7164,19 +7180,19 @@
         <v>78</v>
       </c>
       <c r="I44" t="s" s="2">
-        <v>78</v>
+        <v>87</v>
       </c>
       <c r="J44" t="s" s="2">
-        <v>322</v>
+        <v>311</v>
       </c>
       <c r="K44" t="s" s="2">
-        <v>323</v>
+        <v>312</v>
       </c>
       <c r="L44" t="s" s="2">
-        <v>324</v>
+        <v>313</v>
       </c>
       <c r="M44" t="s" s="2">
-        <v>308</v>
+        <v>314</v>
       </c>
       <c r="N44" s="2"/>
       <c r="O44" t="s" s="2">
@@ -7214,25 +7230,23 @@
         <v>78</v>
       </c>
       <c r="AA44" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AB44" t="s" s="2">
-        <v>78</v>
-      </c>
+        <v>315</v>
+      </c>
+      <c r="AB44" s="2"/>
       <c r="AC44" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AD44" t="s" s="2">
-        <v>78</v>
+        <v>316</v>
       </c>
       <c r="AE44" t="s" s="2">
-        <v>321</v>
+        <v>310</v>
       </c>
       <c r="AF44" t="s" s="2">
-        <v>79</v>
+        <v>86</v>
       </c>
       <c r="AG44" t="s" s="2">
-        <v>80</v>
+        <v>86</v>
       </c>
       <c r="AH44" t="s" s="2">
         <v>78</v>
@@ -7241,16 +7255,16 @@
         <v>98</v>
       </c>
       <c r="AJ44" t="s" s="2">
-        <v>78</v>
+        <v>317</v>
       </c>
       <c r="AK44" t="s" s="2">
-        <v>325</v>
+        <v>318</v>
       </c>
       <c r="AL44" t="s" s="2">
         <v>319</v>
       </c>
       <c r="AM44" t="s" s="2">
-        <v>78</v>
+        <v>320</v>
       </c>
       <c r="AN44" t="s" s="2">
         <v>78</v>
@@ -7258,9 +7272,11 @@
     </row>
     <row r="45">
       <c r="A45" t="s" s="2">
-        <v>326</v>
-      </c>
-      <c r="B45" s="2"/>
+        <v>310</v>
+      </c>
+      <c r="B45" t="s" s="2">
+        <v>321</v>
+      </c>
       <c r="C45" t="s" s="2">
         <v>78</v>
       </c>
@@ -7281,16 +7297,16 @@
         <v>87</v>
       </c>
       <c r="J45" t="s" s="2">
-        <v>327</v>
+        <v>322</v>
       </c>
       <c r="K45" t="s" s="2">
-        <v>328</v>
+        <v>312</v>
       </c>
       <c r="L45" t="s" s="2">
-        <v>329</v>
+        <v>313</v>
       </c>
       <c r="M45" t="s" s="2">
-        <v>330</v>
+        <v>314</v>
       </c>
       <c r="N45" s="2"/>
       <c r="O45" t="s" s="2">
@@ -7340,7 +7356,7 @@
         <v>78</v>
       </c>
       <c r="AE45" t="s" s="2">
-        <v>326</v>
+        <v>310</v>
       </c>
       <c r="AF45" t="s" s="2">
         <v>86</v>
@@ -7355,16 +7371,16 @@
         <v>98</v>
       </c>
       <c r="AJ45" t="s" s="2">
-        <v>331</v>
+        <v>317</v>
       </c>
       <c r="AK45" t="s" s="2">
-        <v>332</v>
+        <v>318</v>
       </c>
       <c r="AL45" t="s" s="2">
-        <v>333</v>
+        <v>319</v>
       </c>
       <c r="AM45" t="s" s="2">
-        <v>334</v>
+        <v>320</v>
       </c>
       <c r="AN45" t="s" s="2">
         <v>78</v>
@@ -7372,7 +7388,7 @@
     </row>
     <row r="46">
       <c r="A46" t="s" s="2">
-        <v>335</v>
+        <v>323</v>
       </c>
       <c r="B46" s="2"/>
       <c r="C46" t="s" s="2">
@@ -7380,10 +7396,10 @@
       </c>
       <c r="D46" s="2"/>
       <c r="E46" t="s" s="2">
-        <v>79</v>
+        <v>86</v>
       </c>
       <c r="F46" t="s" s="2">
-        <v>80</v>
+        <v>86</v>
       </c>
       <c r="G46" t="s" s="2">
         <v>78</v>
@@ -7395,15 +7411,17 @@
         <v>87</v>
       </c>
       <c r="J46" t="s" s="2">
-        <v>336</v>
+        <v>324</v>
       </c>
       <c r="K46" t="s" s="2">
-        <v>337</v>
+        <v>325</v>
       </c>
       <c r="L46" t="s" s="2">
-        <v>338</v>
-      </c>
-      <c r="M46" s="2"/>
+        <v>326</v>
+      </c>
+      <c r="M46" t="s" s="2">
+        <v>327</v>
+      </c>
       <c r="N46" s="2"/>
       <c r="O46" t="s" s="2">
         <v>78</v>
@@ -7452,13 +7470,13 @@
         <v>78</v>
       </c>
       <c r="AE46" t="s" s="2">
-        <v>335</v>
+        <v>323</v>
       </c>
       <c r="AF46" t="s" s="2">
-        <v>79</v>
+        <v>86</v>
       </c>
       <c r="AG46" t="s" s="2">
-        <v>80</v>
+        <v>86</v>
       </c>
       <c r="AH46" t="s" s="2">
         <v>78</v>
@@ -7467,16 +7485,16 @@
         <v>98</v>
       </c>
       <c r="AJ46" t="s" s="2">
-        <v>339</v>
+        <v>328</v>
       </c>
       <c r="AK46" t="s" s="2">
-        <v>340</v>
+        <v>329</v>
       </c>
       <c r="AL46" t="s" s="2">
-        <v>341</v>
+        <v>330</v>
       </c>
       <c r="AM46" t="s" s="2">
-        <v>342</v>
+        <v>331</v>
       </c>
       <c r="AN46" t="s" s="2">
         <v>78</v>
@@ -7484,7 +7502,7 @@
     </row>
     <row r="47">
       <c r="A47" t="s" s="2">
-        <v>343</v>
+        <v>332</v>
       </c>
       <c r="B47" s="2"/>
       <c r="C47" t="s" s="2">
@@ -7507,15 +7525,17 @@
         <v>78</v>
       </c>
       <c r="J47" t="s" s="2">
-        <v>180</v>
+        <v>333</v>
       </c>
       <c r="K47" t="s" s="2">
-        <v>181</v>
+        <v>334</v>
       </c>
       <c r="L47" t="s" s="2">
-        <v>182</v>
-      </c>
-      <c r="M47" s="2"/>
+        <v>335</v>
+      </c>
+      <c r="M47" t="s" s="2">
+        <v>327</v>
+      </c>
       <c r="N47" s="2"/>
       <c r="O47" t="s" s="2">
         <v>78</v>
@@ -7564,7 +7584,7 @@
         <v>78</v>
       </c>
       <c r="AE47" t="s" s="2">
-        <v>183</v>
+        <v>332</v>
       </c>
       <c r="AF47" t="s" s="2">
         <v>79</v>
@@ -7576,19 +7596,19 @@
         <v>78</v>
       </c>
       <c r="AI47" t="s" s="2">
-        <v>78</v>
+        <v>98</v>
       </c>
       <c r="AJ47" t="s" s="2">
-        <v>78</v>
+        <v>336</v>
       </c>
       <c r="AK47" t="s" s="2">
-        <v>184</v>
+        <v>337</v>
       </c>
       <c r="AL47" t="s" s="2">
-        <v>78</v>
+        <v>338</v>
       </c>
       <c r="AM47" t="s" s="2">
-        <v>78</v>
+        <v>339</v>
       </c>
       <c r="AN47" t="s" s="2">
         <v>78</v>
@@ -7596,11 +7616,11 @@
     </row>
     <row r="48">
       <c r="A48" t="s" s="2">
-        <v>344</v>
+        <v>340</v>
       </c>
       <c r="B48" s="2"/>
       <c r="C48" t="s" s="2">
-        <v>160</v>
+        <v>78</v>
       </c>
       <c r="D48" s="2"/>
       <c r="E48" t="s" s="2">
@@ -7619,16 +7639,16 @@
         <v>78</v>
       </c>
       <c r="J48" t="s" s="2">
-        <v>131</v>
+        <v>341</v>
       </c>
       <c r="K48" t="s" s="2">
-        <v>186</v>
+        <v>342</v>
       </c>
       <c r="L48" t="s" s="2">
-        <v>187</v>
+        <v>343</v>
       </c>
       <c r="M48" t="s" s="2">
-        <v>163</v>
+        <v>327</v>
       </c>
       <c r="N48" s="2"/>
       <c r="O48" t="s" s="2">
@@ -7678,7 +7698,7 @@
         <v>78</v>
       </c>
       <c r="AE48" t="s" s="2">
-        <v>189</v>
+        <v>340</v>
       </c>
       <c r="AF48" t="s" s="2">
         <v>79</v>
@@ -7690,16 +7710,16 @@
         <v>78</v>
       </c>
       <c r="AI48" t="s" s="2">
-        <v>137</v>
+        <v>98</v>
       </c>
       <c r="AJ48" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AK48" t="s" s="2">
-        <v>184</v>
+        <v>344</v>
       </c>
       <c r="AL48" t="s" s="2">
-        <v>78</v>
+        <v>338</v>
       </c>
       <c r="AM48" t="s" s="2">
         <v>78</v>
@@ -7714,26 +7734,26 @@
       </c>
       <c r="B49" s="2"/>
       <c r="C49" t="s" s="2">
-        <v>346</v>
+        <v>78</v>
       </c>
       <c r="D49" s="2"/>
       <c r="E49" t="s" s="2">
-        <v>79</v>
+        <v>86</v>
       </c>
       <c r="F49" t="s" s="2">
-        <v>80</v>
+        <v>86</v>
       </c>
       <c r="G49" t="s" s="2">
         <v>78</v>
       </c>
       <c r="H49" t="s" s="2">
-        <v>87</v>
+        <v>78</v>
       </c>
       <c r="I49" t="s" s="2">
         <v>87</v>
       </c>
       <c r="J49" t="s" s="2">
-        <v>131</v>
+        <v>346</v>
       </c>
       <c r="K49" t="s" s="2">
         <v>347</v>
@@ -7742,11 +7762,9 @@
         <v>348</v>
       </c>
       <c r="M49" t="s" s="2">
-        <v>163</v>
-      </c>
-      <c r="N49" t="s" s="2">
-        <v>164</v>
-      </c>
+        <v>349</v>
+      </c>
+      <c r="N49" s="2"/>
       <c r="O49" t="s" s="2">
         <v>78</v>
       </c>
@@ -7794,31 +7812,31 @@
         <v>78</v>
       </c>
       <c r="AE49" t="s" s="2">
-        <v>349</v>
+        <v>345</v>
       </c>
       <c r="AF49" t="s" s="2">
-        <v>79</v>
+        <v>86</v>
       </c>
       <c r="AG49" t="s" s="2">
-        <v>80</v>
+        <v>86</v>
       </c>
       <c r="AH49" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AI49" t="s" s="2">
-        <v>137</v>
+        <v>98</v>
       </c>
       <c r="AJ49" t="s" s="2">
-        <v>78</v>
+        <v>350</v>
       </c>
       <c r="AK49" t="s" s="2">
-        <v>129</v>
+        <v>351</v>
       </c>
       <c r="AL49" t="s" s="2">
-        <v>78</v>
+        <v>352</v>
       </c>
       <c r="AM49" t="s" s="2">
-        <v>78</v>
+        <v>353</v>
       </c>
       <c r="AN49" t="s" s="2">
         <v>78</v>
@@ -7826,7 +7844,7 @@
     </row>
     <row r="50">
       <c r="A50" t="s" s="2">
-        <v>350</v>
+        <v>354</v>
       </c>
       <c r="B50" s="2"/>
       <c r="C50" t="s" s="2">
@@ -7837,7 +7855,7 @@
         <v>79</v>
       </c>
       <c r="F50" t="s" s="2">
-        <v>86</v>
+        <v>80</v>
       </c>
       <c r="G50" t="s" s="2">
         <v>78</v>
@@ -7846,16 +7864,16 @@
         <v>78</v>
       </c>
       <c r="I50" t="s" s="2">
-        <v>78</v>
+        <v>87</v>
       </c>
       <c r="J50" t="s" s="2">
-        <v>201</v>
+        <v>355</v>
       </c>
       <c r="K50" t="s" s="2">
-        <v>351</v>
+        <v>356</v>
       </c>
       <c r="L50" t="s" s="2">
-        <v>352</v>
+        <v>357</v>
       </c>
       <c r="M50" s="2"/>
       <c r="N50" s="2"/>
@@ -7882,37 +7900,37 @@
         <v>78</v>
       </c>
       <c r="W50" t="s" s="2">
-        <v>279</v>
+        <v>78</v>
       </c>
       <c r="X50" t="s" s="2">
-        <v>353</v>
+        <v>78</v>
       </c>
       <c r="Y50" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="Z50" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AA50" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AB50" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AC50" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AD50" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AE50" t="s" s="2">
         <v>354</v>
       </c>
-      <c r="Z50" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AA50" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AB50" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AC50" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AD50" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AE50" t="s" s="2">
-        <v>350</v>
-      </c>
       <c r="AF50" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AG50" t="s" s="2">
-        <v>86</v>
+        <v>80</v>
       </c>
       <c r="AH50" t="s" s="2">
         <v>78</v>
@@ -7921,16 +7939,16 @@
         <v>98</v>
       </c>
       <c r="AJ50" t="s" s="2">
-        <v>355</v>
+        <v>358</v>
       </c>
       <c r="AK50" t="s" s="2">
-        <v>356</v>
+        <v>359</v>
       </c>
       <c r="AL50" t="s" s="2">
-        <v>78</v>
+        <v>360</v>
       </c>
       <c r="AM50" t="s" s="2">
-        <v>78</v>
+        <v>361</v>
       </c>
       <c r="AN50" t="s" s="2">
         <v>78</v>
@@ -7938,7 +7956,7 @@
     </row>
     <row r="51">
       <c r="A51" t="s" s="2">
-        <v>357</v>
+        <v>362</v>
       </c>
       <c r="B51" s="2"/>
       <c r="C51" t="s" s="2">
@@ -7946,7 +7964,7 @@
       </c>
       <c r="D51" s="2"/>
       <c r="E51" t="s" s="2">
-        <v>86</v>
+        <v>79</v>
       </c>
       <c r="F51" t="s" s="2">
         <v>86</v>
@@ -7958,16 +7976,16 @@
         <v>78</v>
       </c>
       <c r="I51" t="s" s="2">
-        <v>87</v>
+        <v>78</v>
       </c>
       <c r="J51" t="s" s="2">
-        <v>358</v>
+        <v>180</v>
       </c>
       <c r="K51" t="s" s="2">
-        <v>359</v>
+        <v>181</v>
       </c>
       <c r="L51" t="s" s="2">
-        <v>360</v>
+        <v>182</v>
       </c>
       <c r="M51" s="2"/>
       <c r="N51" s="2"/>
@@ -8018,10 +8036,10 @@
         <v>78</v>
       </c>
       <c r="AE51" t="s" s="2">
-        <v>357</v>
+        <v>183</v>
       </c>
       <c r="AF51" t="s" s="2">
-        <v>86</v>
+        <v>79</v>
       </c>
       <c r="AG51" t="s" s="2">
         <v>86</v>
@@ -8030,13 +8048,13 @@
         <v>78</v>
       </c>
       <c r="AI51" t="s" s="2">
-        <v>98</v>
+        <v>78</v>
       </c>
       <c r="AJ51" t="s" s="2">
-        <v>361</v>
+        <v>78</v>
       </c>
       <c r="AK51" t="s" s="2">
-        <v>362</v>
+        <v>184</v>
       </c>
       <c r="AL51" t="s" s="2">
         <v>78</v>
@@ -8054,7 +8072,7 @@
       </c>
       <c r="B52" s="2"/>
       <c r="C52" t="s" s="2">
-        <v>78</v>
+        <v>160</v>
       </c>
       <c r="D52" s="2"/>
       <c r="E52" t="s" s="2">
@@ -8073,15 +8091,17 @@
         <v>78</v>
       </c>
       <c r="J52" t="s" s="2">
-        <v>201</v>
+        <v>131</v>
       </c>
       <c r="K52" t="s" s="2">
-        <v>364</v>
+        <v>186</v>
       </c>
       <c r="L52" t="s" s="2">
-        <v>365</v>
-      </c>
-      <c r="M52" s="2"/>
+        <v>187</v>
+      </c>
+      <c r="M52" t="s" s="2">
+        <v>163</v>
+      </c>
       <c r="N52" s="2"/>
       <c r="O52" t="s" s="2">
         <v>78</v>
@@ -8106,13 +8126,13 @@
         <v>78</v>
       </c>
       <c r="W52" t="s" s="2">
-        <v>279</v>
+        <v>78</v>
       </c>
       <c r="X52" t="s" s="2">
-        <v>366</v>
+        <v>78</v>
       </c>
       <c r="Y52" t="s" s="2">
-        <v>367</v>
+        <v>78</v>
       </c>
       <c r="Z52" t="s" s="2">
         <v>78</v>
@@ -8130,7 +8150,7 @@
         <v>78</v>
       </c>
       <c r="AE52" t="s" s="2">
-        <v>363</v>
+        <v>189</v>
       </c>
       <c r="AF52" t="s" s="2">
         <v>79</v>
@@ -8142,19 +8162,19 @@
         <v>78</v>
       </c>
       <c r="AI52" t="s" s="2">
-        <v>98</v>
+        <v>137</v>
       </c>
       <c r="AJ52" t="s" s="2">
-        <v>368</v>
+        <v>78</v>
       </c>
       <c r="AK52" t="s" s="2">
-        <v>369</v>
+        <v>184</v>
       </c>
       <c r="AL52" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AM52" t="s" s="2">
-        <v>370</v>
+        <v>78</v>
       </c>
       <c r="AN52" t="s" s="2">
         <v>78</v>
@@ -8162,11 +8182,11 @@
     </row>
     <row r="53">
       <c r="A53" t="s" s="2">
-        <v>371</v>
+        <v>364</v>
       </c>
       <c r="B53" s="2"/>
       <c r="C53" t="s" s="2">
-        <v>78</v>
+        <v>365</v>
       </c>
       <c r="D53" s="2"/>
       <c r="E53" t="s" s="2">
@@ -8179,24 +8199,26 @@
         <v>78</v>
       </c>
       <c r="H53" t="s" s="2">
-        <v>78</v>
+        <v>87</v>
       </c>
       <c r="I53" t="s" s="2">
-        <v>78</v>
+        <v>87</v>
       </c>
       <c r="J53" t="s" s="2">
-        <v>372</v>
+        <v>131</v>
       </c>
       <c r="K53" t="s" s="2">
-        <v>373</v>
+        <v>366</v>
       </c>
       <c r="L53" t="s" s="2">
-        <v>374</v>
+        <v>367</v>
       </c>
       <c r="M53" t="s" s="2">
-        <v>375</v>
-      </c>
-      <c r="N53" s="2"/>
+        <v>163</v>
+      </c>
+      <c r="N53" t="s" s="2">
+        <v>164</v>
+      </c>
       <c r="O53" t="s" s="2">
         <v>78</v>
       </c>
@@ -8244,7 +8266,7 @@
         <v>78</v>
       </c>
       <c r="AE53" t="s" s="2">
-        <v>371</v>
+        <v>368</v>
       </c>
       <c r="AF53" t="s" s="2">
         <v>79</v>
@@ -8256,27 +8278,27 @@
         <v>78</v>
       </c>
       <c r="AI53" t="s" s="2">
-        <v>98</v>
+        <v>137</v>
       </c>
       <c r="AJ53" t="s" s="2">
-        <v>376</v>
+        <v>78</v>
       </c>
       <c r="AK53" t="s" s="2">
-        <v>377</v>
+        <v>129</v>
       </c>
       <c r="AL53" t="s" s="2">
-        <v>378</v>
+        <v>78</v>
       </c>
       <c r="AM53" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AN53" t="s" s="2">
-        <v>379</v>
+        <v>78</v>
       </c>
     </row>
     <row r="54">
       <c r="A54" t="s" s="2">
-        <v>380</v>
+        <v>369</v>
       </c>
       <c r="B54" s="2"/>
       <c r="C54" t="s" s="2">
@@ -8299,20 +8321,16 @@
         <v>78</v>
       </c>
       <c r="J54" t="s" s="2">
-        <v>381</v>
+        <v>201</v>
       </c>
       <c r="K54" t="s" s="2">
-        <v>382</v>
+        <v>370</v>
       </c>
       <c r="L54" t="s" s="2">
-        <v>383</v>
-      </c>
-      <c r="M54" t="s" s="2">
-        <v>384</v>
-      </c>
-      <c r="N54" t="s" s="2">
-        <v>385</v>
-      </c>
+        <v>371</v>
+      </c>
+      <c r="M54" s="2"/>
+      <c r="N54" s="2"/>
       <c r="O54" t="s" s="2">
         <v>78</v>
       </c>
@@ -8336,13 +8354,13 @@
         <v>78</v>
       </c>
       <c r="W54" t="s" s="2">
-        <v>78</v>
+        <v>279</v>
       </c>
       <c r="X54" t="s" s="2">
-        <v>78</v>
+        <v>372</v>
       </c>
       <c r="Y54" t="s" s="2">
-        <v>78</v>
+        <v>373</v>
       </c>
       <c r="Z54" t="s" s="2">
         <v>78</v>
@@ -8360,7 +8378,7 @@
         <v>78</v>
       </c>
       <c r="AE54" t="s" s="2">
-        <v>380</v>
+        <v>369</v>
       </c>
       <c r="AF54" t="s" s="2">
         <v>79</v>
@@ -8375,16 +8393,16 @@
         <v>98</v>
       </c>
       <c r="AJ54" t="s" s="2">
-        <v>386</v>
+        <v>374</v>
       </c>
       <c r="AK54" t="s" s="2">
-        <v>387</v>
+        <v>375</v>
       </c>
       <c r="AL54" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AM54" t="s" s="2">
-        <v>388</v>
+        <v>78</v>
       </c>
       <c r="AN54" t="s" s="2">
         <v>78</v>
@@ -8392,7 +8410,7 @@
     </row>
     <row r="55">
       <c r="A55" t="s" s="2">
-        <v>389</v>
+        <v>376</v>
       </c>
       <c r="B55" s="2"/>
       <c r="C55" t="s" s="2">
@@ -8400,10 +8418,10 @@
       </c>
       <c r="D55" s="2"/>
       <c r="E55" t="s" s="2">
-        <v>79</v>
+        <v>86</v>
       </c>
       <c r="F55" t="s" s="2">
-        <v>80</v>
+        <v>86</v>
       </c>
       <c r="G55" t="s" s="2">
         <v>78</v>
@@ -8412,20 +8430,18 @@
         <v>78</v>
       </c>
       <c r="I55" t="s" s="2">
-        <v>78</v>
+        <v>87</v>
       </c>
       <c r="J55" t="s" s="2">
-        <v>390</v>
+        <v>377</v>
       </c>
       <c r="K55" t="s" s="2">
-        <v>391</v>
+        <v>378</v>
       </c>
       <c r="L55" t="s" s="2">
-        <v>392</v>
-      </c>
-      <c r="M55" t="s" s="2">
-        <v>308</v>
-      </c>
+        <v>379</v>
+      </c>
+      <c r="M55" s="2"/>
       <c r="N55" s="2"/>
       <c r="O55" t="s" s="2">
         <v>78</v>
@@ -8474,13 +8490,13 @@
         <v>78</v>
       </c>
       <c r="AE55" t="s" s="2">
-        <v>389</v>
+        <v>376</v>
       </c>
       <c r="AF55" t="s" s="2">
-        <v>79</v>
+        <v>86</v>
       </c>
       <c r="AG55" t="s" s="2">
-        <v>80</v>
+        <v>86</v>
       </c>
       <c r="AH55" t="s" s="2">
         <v>78</v>
@@ -8489,16 +8505,16 @@
         <v>98</v>
       </c>
       <c r="AJ55" t="s" s="2">
-        <v>78</v>
+        <v>380</v>
       </c>
       <c r="AK55" t="s" s="2">
-        <v>393</v>
+        <v>381</v>
       </c>
       <c r="AL55" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AM55" t="s" s="2">
-        <v>394</v>
+        <v>78</v>
       </c>
       <c r="AN55" t="s" s="2">
         <v>78</v>
@@ -8506,7 +8522,7 @@
     </row>
     <row r="56">
       <c r="A56" t="s" s="2">
-        <v>395</v>
+        <v>382</v>
       </c>
       <c r="B56" s="2"/>
       <c r="C56" t="s" s="2">
@@ -8529,17 +8545,15 @@
         <v>78</v>
       </c>
       <c r="J56" t="s" s="2">
-        <v>396</v>
+        <v>201</v>
       </c>
       <c r="K56" t="s" s="2">
-        <v>397</v>
+        <v>383</v>
       </c>
       <c r="L56" t="s" s="2">
-        <v>398</v>
-      </c>
-      <c r="M56" t="s" s="2">
-        <v>399</v>
-      </c>
+        <v>384</v>
+      </c>
+      <c r="M56" s="2"/>
       <c r="N56" s="2"/>
       <c r="O56" t="s" s="2">
         <v>78</v>
@@ -8564,13 +8578,13 @@
         <v>78</v>
       </c>
       <c r="W56" t="s" s="2">
-        <v>78</v>
+        <v>279</v>
       </c>
       <c r="X56" t="s" s="2">
-        <v>78</v>
+        <v>385</v>
       </c>
       <c r="Y56" t="s" s="2">
-        <v>78</v>
+        <v>386</v>
       </c>
       <c r="Z56" t="s" s="2">
         <v>78</v>
@@ -8588,7 +8602,7 @@
         <v>78</v>
       </c>
       <c r="AE56" t="s" s="2">
-        <v>395</v>
+        <v>382</v>
       </c>
       <c r="AF56" t="s" s="2">
         <v>79</v>
@@ -8603,16 +8617,16 @@
         <v>98</v>
       </c>
       <c r="AJ56" t="s" s="2">
-        <v>400</v>
+        <v>387</v>
       </c>
       <c r="AK56" t="s" s="2">
-        <v>401</v>
+        <v>388</v>
       </c>
       <c r="AL56" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AM56" t="s" s="2">
-        <v>78</v>
+        <v>389</v>
       </c>
       <c r="AN56" t="s" s="2">
         <v>78</v>
@@ -8620,7 +8634,7 @@
     </row>
     <row r="57">
       <c r="A57" t="s" s="2">
-        <v>402</v>
+        <v>390</v>
       </c>
       <c r="B57" s="2"/>
       <c r="C57" t="s" s="2">
@@ -8631,7 +8645,7 @@
         <v>79</v>
       </c>
       <c r="F57" t="s" s="2">
-        <v>86</v>
+        <v>80</v>
       </c>
       <c r="G57" t="s" s="2">
         <v>78</v>
@@ -8643,15 +8657,17 @@
         <v>78</v>
       </c>
       <c r="J57" t="s" s="2">
-        <v>336</v>
+        <v>391</v>
       </c>
       <c r="K57" t="s" s="2">
-        <v>403</v>
+        <v>392</v>
       </c>
       <c r="L57" t="s" s="2">
-        <v>404</v>
-      </c>
-      <c r="M57" s="2"/>
+        <v>393</v>
+      </c>
+      <c r="M57" t="s" s="2">
+        <v>394</v>
+      </c>
       <c r="N57" s="2"/>
       <c r="O57" t="s" s="2">
         <v>78</v>
@@ -8700,39 +8716,39 @@
         <v>78</v>
       </c>
       <c r="AE57" t="s" s="2">
-        <v>402</v>
+        <v>390</v>
       </c>
       <c r="AF57" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AG57" t="s" s="2">
-        <v>86</v>
+        <v>80</v>
       </c>
       <c r="AH57" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AI57" t="s" s="2">
-        <v>405</v>
+        <v>98</v>
       </c>
       <c r="AJ57" t="s" s="2">
-        <v>78</v>
+        <v>395</v>
       </c>
       <c r="AK57" t="s" s="2">
-        <v>406</v>
+        <v>396</v>
       </c>
       <c r="AL57" t="s" s="2">
-        <v>78</v>
+        <v>397</v>
       </c>
       <c r="AM57" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AN57" t="s" s="2">
-        <v>78</v>
+        <v>398</v>
       </c>
     </row>
     <row r="58">
       <c r="A58" t="s" s="2">
-        <v>407</v>
+        <v>399</v>
       </c>
       <c r="B58" s="2"/>
       <c r="C58" t="s" s="2">
@@ -8755,16 +8771,20 @@
         <v>78</v>
       </c>
       <c r="J58" t="s" s="2">
-        <v>180</v>
+        <v>400</v>
       </c>
       <c r="K58" t="s" s="2">
-        <v>181</v>
+        <v>401</v>
       </c>
       <c r="L58" t="s" s="2">
-        <v>182</v>
-      </c>
-      <c r="M58" s="2"/>
-      <c r="N58" s="2"/>
+        <v>402</v>
+      </c>
+      <c r="M58" t="s" s="2">
+        <v>403</v>
+      </c>
+      <c r="N58" t="s" s="2">
+        <v>404</v>
+      </c>
       <c r="O58" t="s" s="2">
         <v>78</v>
       </c>
@@ -8812,7 +8832,7 @@
         <v>78</v>
       </c>
       <c r="AE58" t="s" s="2">
-        <v>183</v>
+        <v>399</v>
       </c>
       <c r="AF58" t="s" s="2">
         <v>79</v>
@@ -8824,19 +8844,19 @@
         <v>78</v>
       </c>
       <c r="AI58" t="s" s="2">
-        <v>78</v>
+        <v>98</v>
       </c>
       <c r="AJ58" t="s" s="2">
-        <v>78</v>
+        <v>405</v>
       </c>
       <c r="AK58" t="s" s="2">
-        <v>184</v>
+        <v>406</v>
       </c>
       <c r="AL58" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AM58" t="s" s="2">
-        <v>78</v>
+        <v>407</v>
       </c>
       <c r="AN58" t="s" s="2">
         <v>78</v>
@@ -8867,15 +8887,17 @@
         <v>78</v>
       </c>
       <c r="J59" t="s" s="2">
-        <v>131</v>
+        <v>409</v>
       </c>
       <c r="K59" t="s" s="2">
-        <v>132</v>
+        <v>410</v>
       </c>
       <c r="L59" t="s" s="2">
-        <v>133</v>
-      </c>
-      <c r="M59" s="2"/>
+        <v>411</v>
+      </c>
+      <c r="M59" t="s" s="2">
+        <v>327</v>
+      </c>
       <c r="N59" s="2"/>
       <c r="O59" t="s" s="2">
         <v>78</v>
@@ -8912,17 +8934,19 @@
         <v>78</v>
       </c>
       <c r="AA59" t="s" s="2">
-        <v>134</v>
-      </c>
-      <c r="AB59" s="2"/>
+        <v>78</v>
+      </c>
+      <c r="AB59" t="s" s="2">
+        <v>78</v>
+      </c>
       <c r="AC59" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AD59" t="s" s="2">
-        <v>135</v>
+        <v>78</v>
       </c>
       <c r="AE59" t="s" s="2">
-        <v>189</v>
+        <v>408</v>
       </c>
       <c r="AF59" t="s" s="2">
         <v>79</v>
@@ -8934,19 +8958,19 @@
         <v>78</v>
       </c>
       <c r="AI59" t="s" s="2">
-        <v>137</v>
+        <v>98</v>
       </c>
       <c r="AJ59" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AK59" t="s" s="2">
-        <v>78</v>
+        <v>412</v>
       </c>
       <c r="AL59" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AM59" t="s" s="2">
-        <v>78</v>
+        <v>413</v>
       </c>
       <c r="AN59" t="s" s="2">
         <v>78</v>
@@ -8954,11 +8978,9 @@
     </row>
     <row r="60">
       <c r="A60" t="s" s="2">
-        <v>408</v>
-      </c>
-      <c r="B60" t="s" s="2">
-        <v>409</v>
-      </c>
+        <v>414</v>
+      </c>
+      <c r="B60" s="2"/>
       <c r="C60" t="s" s="2">
         <v>78</v>
       </c>
@@ -8979,15 +9001,17 @@
         <v>78</v>
       </c>
       <c r="J60" t="s" s="2">
-        <v>410</v>
+        <v>415</v>
       </c>
       <c r="K60" t="s" s="2">
-        <v>411</v>
+        <v>416</v>
       </c>
       <c r="L60" t="s" s="2">
-        <v>412</v>
-      </c>
-      <c r="M60" s="2"/>
+        <v>417</v>
+      </c>
+      <c r="M60" t="s" s="2">
+        <v>418</v>
+      </c>
       <c r="N60" s="2"/>
       <c r="O60" t="s" s="2">
         <v>78</v>
@@ -9036,7 +9060,7 @@
         <v>78</v>
       </c>
       <c r="AE60" t="s" s="2">
-        <v>189</v>
+        <v>414</v>
       </c>
       <c r="AF60" t="s" s="2">
         <v>79</v>
@@ -9045,16 +9069,16 @@
         <v>80</v>
       </c>
       <c r="AH60" t="s" s="2">
-        <v>142</v>
+        <v>78</v>
       </c>
       <c r="AI60" t="s" s="2">
-        <v>137</v>
+        <v>98</v>
       </c>
       <c r="AJ60" t="s" s="2">
-        <v>78</v>
+        <v>419</v>
       </c>
       <c r="AK60" t="s" s="2">
-        <v>78</v>
+        <v>420</v>
       </c>
       <c r="AL60" t="s" s="2">
         <v>78</v>
@@ -9068,11 +9092,9 @@
     </row>
     <row r="61">
       <c r="A61" t="s" s="2">
-        <v>408</v>
-      </c>
-      <c r="B61" t="s" s="2">
-        <v>413</v>
-      </c>
+        <v>421</v>
+      </c>
+      <c r="B61" s="2"/>
       <c r="C61" t="s" s="2">
         <v>78</v>
       </c>
@@ -9081,7 +9103,7 @@
         <v>79</v>
       </c>
       <c r="F61" t="s" s="2">
-        <v>80</v>
+        <v>86</v>
       </c>
       <c r="G61" t="s" s="2">
         <v>78</v>
@@ -9093,13 +9115,13 @@
         <v>78</v>
       </c>
       <c r="J61" t="s" s="2">
-        <v>414</v>
+        <v>355</v>
       </c>
       <c r="K61" t="s" s="2">
-        <v>415</v>
+        <v>422</v>
       </c>
       <c r="L61" t="s" s="2">
-        <v>416</v>
+        <v>423</v>
       </c>
       <c r="M61" s="2"/>
       <c r="N61" s="2"/>
@@ -9150,25 +9172,25 @@
         <v>78</v>
       </c>
       <c r="AE61" t="s" s="2">
-        <v>189</v>
+        <v>421</v>
       </c>
       <c r="AF61" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AG61" t="s" s="2">
-        <v>80</v>
+        <v>86</v>
       </c>
       <c r="AH61" t="s" s="2">
-        <v>142</v>
+        <v>78</v>
       </c>
       <c r="AI61" t="s" s="2">
-        <v>137</v>
+        <v>424</v>
       </c>
       <c r="AJ61" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AK61" t="s" s="2">
-        <v>78</v>
+        <v>425</v>
       </c>
       <c r="AL61" t="s" s="2">
         <v>78</v>
@@ -9182,11 +9204,9 @@
     </row>
     <row r="62">
       <c r="A62" t="s" s="2">
-        <v>408</v>
-      </c>
-      <c r="B62" t="s" s="2">
-        <v>417</v>
-      </c>
+        <v>426</v>
+      </c>
+      <c r="B62" s="2"/>
       <c r="C62" t="s" s="2">
         <v>78</v>
       </c>
@@ -9195,7 +9215,7 @@
         <v>79</v>
       </c>
       <c r="F62" t="s" s="2">
-        <v>80</v>
+        <v>86</v>
       </c>
       <c r="G62" t="s" s="2">
         <v>78</v>
@@ -9207,13 +9227,13 @@
         <v>78</v>
       </c>
       <c r="J62" t="s" s="2">
-        <v>418</v>
+        <v>180</v>
       </c>
       <c r="K62" t="s" s="2">
-        <v>419</v>
+        <v>181</v>
       </c>
       <c r="L62" t="s" s="2">
-        <v>420</v>
+        <v>182</v>
       </c>
       <c r="M62" s="2"/>
       <c r="N62" s="2"/>
@@ -9264,25 +9284,25 @@
         <v>78</v>
       </c>
       <c r="AE62" t="s" s="2">
-        <v>189</v>
+        <v>183</v>
       </c>
       <c r="AF62" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AG62" t="s" s="2">
-        <v>80</v>
+        <v>86</v>
       </c>
       <c r="AH62" t="s" s="2">
-        <v>142</v>
+        <v>78</v>
       </c>
       <c r="AI62" t="s" s="2">
-        <v>137</v>
+        <v>78</v>
       </c>
       <c r="AJ62" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AK62" t="s" s="2">
-        <v>78</v>
+        <v>184</v>
       </c>
       <c r="AL62" t="s" s="2">
         <v>78</v>
@@ -9296,11 +9316,9 @@
     </row>
     <row r="63">
       <c r="A63" t="s" s="2">
-        <v>408</v>
-      </c>
-      <c r="B63" t="s" s="2">
-        <v>421</v>
-      </c>
+        <v>427</v>
+      </c>
+      <c r="B63" s="2"/>
       <c r="C63" t="s" s="2">
         <v>78</v>
       </c>
@@ -9321,13 +9339,13 @@
         <v>78</v>
       </c>
       <c r="J63" t="s" s="2">
-        <v>422</v>
+        <v>131</v>
       </c>
       <c r="K63" t="s" s="2">
-        <v>423</v>
+        <v>132</v>
       </c>
       <c r="L63" t="s" s="2">
-        <v>424</v>
+        <v>133</v>
       </c>
       <c r="M63" s="2"/>
       <c r="N63" s="2"/>
@@ -9366,16 +9384,14 @@
         <v>78</v>
       </c>
       <c r="AA63" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AB63" t="s" s="2">
-        <v>78</v>
-      </c>
+        <v>134</v>
+      </c>
+      <c r="AB63" s="2"/>
       <c r="AC63" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AD63" t="s" s="2">
-        <v>78</v>
+        <v>135</v>
       </c>
       <c r="AE63" t="s" s="2">
         <v>189</v>
@@ -9387,7 +9403,7 @@
         <v>80</v>
       </c>
       <c r="AH63" t="s" s="2">
-        <v>142</v>
+        <v>78</v>
       </c>
       <c r="AI63" t="s" s="2">
         <v>137</v>
@@ -9410,10 +9426,10 @@
     </row>
     <row r="64">
       <c r="A64" t="s" s="2">
-        <v>408</v>
+        <v>427</v>
       </c>
       <c r="B64" t="s" s="2">
-        <v>425</v>
+        <v>428</v>
       </c>
       <c r="C64" t="s" s="2">
         <v>78</v>
@@ -9435,13 +9451,13 @@
         <v>78</v>
       </c>
       <c r="J64" t="s" s="2">
-        <v>426</v>
+        <v>429</v>
       </c>
       <c r="K64" t="s" s="2">
-        <v>427</v>
+        <v>430</v>
       </c>
       <c r="L64" t="s" s="2">
-        <v>428</v>
+        <v>431</v>
       </c>
       <c r="M64" s="2"/>
       <c r="N64" s="2"/>
@@ -9524,11 +9540,13 @@
     </row>
     <row r="65">
       <c r="A65" t="s" s="2">
-        <v>429</v>
-      </c>
-      <c r="B65" s="2"/>
+        <v>427</v>
+      </c>
+      <c r="B65" t="s" s="2">
+        <v>432</v>
+      </c>
       <c r="C65" t="s" s="2">
-        <v>346</v>
+        <v>78</v>
       </c>
       <c r="D65" s="2"/>
       <c r="E65" t="s" s="2">
@@ -9541,26 +9559,22 @@
         <v>78</v>
       </c>
       <c r="H65" t="s" s="2">
-        <v>87</v>
+        <v>78</v>
       </c>
       <c r="I65" t="s" s="2">
-        <v>87</v>
+        <v>78</v>
       </c>
       <c r="J65" t="s" s="2">
-        <v>131</v>
+        <v>433</v>
       </c>
       <c r="K65" t="s" s="2">
-        <v>347</v>
+        <v>434</v>
       </c>
       <c r="L65" t="s" s="2">
-        <v>348</v>
-      </c>
-      <c r="M65" t="s" s="2">
-        <v>163</v>
-      </c>
-      <c r="N65" t="s" s="2">
-        <v>164</v>
-      </c>
+        <v>435</v>
+      </c>
+      <c r="M65" s="2"/>
+      <c r="N65" s="2"/>
       <c r="O65" t="s" s="2">
         <v>78</v>
       </c>
@@ -9608,7 +9622,7 @@
         <v>78</v>
       </c>
       <c r="AE65" t="s" s="2">
-        <v>349</v>
+        <v>189</v>
       </c>
       <c r="AF65" t="s" s="2">
         <v>79</v>
@@ -9617,7 +9631,7 @@
         <v>80</v>
       </c>
       <c r="AH65" t="s" s="2">
-        <v>78</v>
+        <v>142</v>
       </c>
       <c r="AI65" t="s" s="2">
         <v>137</v>
@@ -9626,7 +9640,7 @@
         <v>78</v>
       </c>
       <c r="AK65" t="s" s="2">
-        <v>129</v>
+        <v>78</v>
       </c>
       <c r="AL65" t="s" s="2">
         <v>78</v>
@@ -9640,9 +9654,11 @@
     </row>
     <row r="66">
       <c r="A66" t="s" s="2">
-        <v>430</v>
-      </c>
-      <c r="B66" s="2"/>
+        <v>427</v>
+      </c>
+      <c r="B66" t="s" s="2">
+        <v>436</v>
+      </c>
       <c r="C66" t="s" s="2">
         <v>78</v>
       </c>
@@ -9651,7 +9667,7 @@
         <v>79</v>
       </c>
       <c r="F66" t="s" s="2">
-        <v>86</v>
+        <v>80</v>
       </c>
       <c r="G66" t="s" s="2">
         <v>78</v>
@@ -9663,13 +9679,13 @@
         <v>78</v>
       </c>
       <c r="J66" t="s" s="2">
-        <v>180</v>
+        <v>437</v>
       </c>
       <c r="K66" t="s" s="2">
-        <v>431</v>
+        <v>438</v>
       </c>
       <c r="L66" t="s" s="2">
-        <v>432</v>
+        <v>439</v>
       </c>
       <c r="M66" s="2"/>
       <c r="N66" s="2"/>
@@ -9720,25 +9736,25 @@
         <v>78</v>
       </c>
       <c r="AE66" t="s" s="2">
-        <v>430</v>
+        <v>189</v>
       </c>
       <c r="AF66" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AG66" t="s" s="2">
-        <v>86</v>
+        <v>80</v>
       </c>
       <c r="AH66" t="s" s="2">
-        <v>78</v>
+        <v>142</v>
       </c>
       <c r="AI66" t="s" s="2">
-        <v>98</v>
+        <v>137</v>
       </c>
       <c r="AJ66" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AK66" t="s" s="2">
-        <v>433</v>
+        <v>78</v>
       </c>
       <c r="AL66" t="s" s="2">
         <v>78</v>
@@ -9752,9 +9768,11 @@
     </row>
     <row r="67">
       <c r="A67" t="s" s="2">
-        <v>434</v>
-      </c>
-      <c r="B67" s="2"/>
+        <v>427</v>
+      </c>
+      <c r="B67" t="s" s="2">
+        <v>440</v>
+      </c>
       <c r="C67" t="s" s="2">
         <v>78</v>
       </c>
@@ -9763,7 +9781,7 @@
         <v>79</v>
       </c>
       <c r="F67" t="s" s="2">
-        <v>86</v>
+        <v>80</v>
       </c>
       <c r="G67" t="s" s="2">
         <v>78</v>
@@ -9775,17 +9793,15 @@
         <v>78</v>
       </c>
       <c r="J67" t="s" s="2">
-        <v>201</v>
+        <v>441</v>
       </c>
       <c r="K67" t="s" s="2">
-        <v>435</v>
+        <v>442</v>
       </c>
       <c r="L67" t="s" s="2">
-        <v>436</v>
-      </c>
-      <c r="M67" t="s" s="2">
-        <v>437</v>
-      </c>
+        <v>443</v>
+      </c>
+      <c r="M67" s="2"/>
       <c r="N67" s="2"/>
       <c r="O67" t="s" s="2">
         <v>78</v>
@@ -9810,11 +9826,13 @@
         <v>78</v>
       </c>
       <c r="W67" t="s" s="2">
-        <v>110</v>
-      </c>
-      <c r="X67" s="2"/>
+        <v>78</v>
+      </c>
+      <c r="X67" t="s" s="2">
+        <v>78</v>
+      </c>
       <c r="Y67" t="s" s="2">
-        <v>438</v>
+        <v>78</v>
       </c>
       <c r="Z67" t="s" s="2">
         <v>78</v>
@@ -9832,31 +9850,31 @@
         <v>78</v>
       </c>
       <c r="AE67" t="s" s="2">
-        <v>434</v>
+        <v>189</v>
       </c>
       <c r="AF67" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AG67" t="s" s="2">
-        <v>86</v>
+        <v>80</v>
       </c>
       <c r="AH67" t="s" s="2">
-        <v>78</v>
+        <v>142</v>
       </c>
       <c r="AI67" t="s" s="2">
-        <v>98</v>
+        <v>137</v>
       </c>
       <c r="AJ67" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AK67" t="s" s="2">
-        <v>439</v>
+        <v>78</v>
       </c>
       <c r="AL67" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AM67" t="s" s="2">
-        <v>440</v>
+        <v>78</v>
       </c>
       <c r="AN67" t="s" s="2">
         <v>78</v>
@@ -9864,9 +9882,11 @@
     </row>
     <row r="68">
       <c r="A68" t="s" s="2">
-        <v>441</v>
-      </c>
-      <c r="B68" s="2"/>
+        <v>427</v>
+      </c>
+      <c r="B68" t="s" s="2">
+        <v>444</v>
+      </c>
       <c r="C68" t="s" s="2">
         <v>78</v>
       </c>
@@ -9875,7 +9895,7 @@
         <v>79</v>
       </c>
       <c r="F68" t="s" s="2">
-        <v>86</v>
+        <v>80</v>
       </c>
       <c r="G68" t="s" s="2">
         <v>78</v>
@@ -9887,13 +9907,13 @@
         <v>78</v>
       </c>
       <c r="J68" t="s" s="2">
-        <v>180</v>
+        <v>445</v>
       </c>
       <c r="K68" t="s" s="2">
-        <v>181</v>
+        <v>446</v>
       </c>
       <c r="L68" t="s" s="2">
-        <v>182</v>
+        <v>447</v>
       </c>
       <c r="M68" s="2"/>
       <c r="N68" s="2"/>
@@ -9944,25 +9964,25 @@
         <v>78</v>
       </c>
       <c r="AE68" t="s" s="2">
-        <v>183</v>
+        <v>189</v>
       </c>
       <c r="AF68" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AG68" t="s" s="2">
-        <v>86</v>
+        <v>80</v>
       </c>
       <c r="AH68" t="s" s="2">
-        <v>78</v>
+        <v>142</v>
       </c>
       <c r="AI68" t="s" s="2">
-        <v>78</v>
+        <v>137</v>
       </c>
       <c r="AJ68" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AK68" t="s" s="2">
-        <v>184</v>
+        <v>78</v>
       </c>
       <c r="AL68" t="s" s="2">
         <v>78</v>
@@ -9976,11 +9996,11 @@
     </row>
     <row r="69">
       <c r="A69" t="s" s="2">
-        <v>442</v>
+        <v>448</v>
       </c>
       <c r="B69" s="2"/>
       <c r="C69" t="s" s="2">
-        <v>160</v>
+        <v>365</v>
       </c>
       <c r="D69" s="2"/>
       <c r="E69" t="s" s="2">
@@ -9993,24 +10013,26 @@
         <v>78</v>
       </c>
       <c r="H69" t="s" s="2">
-        <v>78</v>
+        <v>87</v>
       </c>
       <c r="I69" t="s" s="2">
-        <v>78</v>
+        <v>87</v>
       </c>
       <c r="J69" t="s" s="2">
         <v>131</v>
       </c>
       <c r="K69" t="s" s="2">
-        <v>186</v>
+        <v>366</v>
       </c>
       <c r="L69" t="s" s="2">
-        <v>187</v>
+        <v>367</v>
       </c>
       <c r="M69" t="s" s="2">
         <v>163</v>
       </c>
-      <c r="N69" s="2"/>
+      <c r="N69" t="s" s="2">
+        <v>164</v>
+      </c>
       <c r="O69" t="s" s="2">
         <v>78</v>
       </c>
@@ -10046,19 +10068,19 @@
         <v>78</v>
       </c>
       <c r="AA69" t="s" s="2">
-        <v>134</v>
+        <v>78</v>
       </c>
       <c r="AB69" t="s" s="2">
-        <v>188</v>
+        <v>78</v>
       </c>
       <c r="AC69" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AD69" t="s" s="2">
-        <v>135</v>
+        <v>78</v>
       </c>
       <c r="AE69" t="s" s="2">
-        <v>189</v>
+        <v>368</v>
       </c>
       <c r="AF69" t="s" s="2">
         <v>79</v>
@@ -10076,7 +10098,7 @@
         <v>78</v>
       </c>
       <c r="AK69" t="s" s="2">
-        <v>184</v>
+        <v>129</v>
       </c>
       <c r="AL69" t="s" s="2">
         <v>78</v>
@@ -10090,11 +10112,9 @@
     </row>
     <row r="70">
       <c r="A70" t="s" s="2">
-        <v>442</v>
-      </c>
-      <c r="B70" t="s" s="2">
-        <v>443</v>
-      </c>
+        <v>449</v>
+      </c>
+      <c r="B70" s="2"/>
       <c r="C70" t="s" s="2">
         <v>78</v>
       </c>
@@ -10103,7 +10123,7 @@
         <v>79</v>
       </c>
       <c r="F70" t="s" s="2">
-        <v>80</v>
+        <v>86</v>
       </c>
       <c r="G70" t="s" s="2">
         <v>78</v>
@@ -10115,13 +10135,13 @@
         <v>78</v>
       </c>
       <c r="J70" t="s" s="2">
-        <v>444</v>
+        <v>180</v>
       </c>
       <c r="K70" t="s" s="2">
-        <v>445</v>
+        <v>450</v>
       </c>
       <c r="L70" t="s" s="2">
-        <v>446</v>
+        <v>451</v>
       </c>
       <c r="M70" s="2"/>
       <c r="N70" s="2"/>
@@ -10172,25 +10192,25 @@
         <v>78</v>
       </c>
       <c r="AE70" t="s" s="2">
-        <v>189</v>
+        <v>449</v>
       </c>
       <c r="AF70" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AG70" t="s" s="2">
-        <v>80</v>
+        <v>86</v>
       </c>
       <c r="AH70" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AI70" t="s" s="2">
-        <v>137</v>
+        <v>98</v>
       </c>
       <c r="AJ70" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AK70" t="s" s="2">
-        <v>78</v>
+        <v>452</v>
       </c>
       <c r="AL70" t="s" s="2">
         <v>78</v>
@@ -10204,11 +10224,9 @@
     </row>
     <row r="71">
       <c r="A71" t="s" s="2">
-        <v>442</v>
-      </c>
-      <c r="B71" t="s" s="2">
-        <v>447</v>
-      </c>
+        <v>453</v>
+      </c>
+      <c r="B71" s="2"/>
       <c r="C71" t="s" s="2">
         <v>78</v>
       </c>
@@ -10217,7 +10235,7 @@
         <v>79</v>
       </c>
       <c r="F71" t="s" s="2">
-        <v>80</v>
+        <v>86</v>
       </c>
       <c r="G71" t="s" s="2">
         <v>78</v>
@@ -10229,15 +10247,17 @@
         <v>78</v>
       </c>
       <c r="J71" t="s" s="2">
-        <v>448</v>
+        <v>201</v>
       </c>
       <c r="K71" t="s" s="2">
-        <v>449</v>
+        <v>454</v>
       </c>
       <c r="L71" t="s" s="2">
-        <v>450</v>
-      </c>
-      <c r="M71" s="2"/>
+        <v>455</v>
+      </c>
+      <c r="M71" t="s" s="2">
+        <v>456</v>
+      </c>
       <c r="N71" s="2"/>
       <c r="O71" t="s" s="2">
         <v>78</v>
@@ -10262,13 +10282,11 @@
         <v>78</v>
       </c>
       <c r="W71" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="X71" t="s" s="2">
-        <v>78</v>
-      </c>
+        <v>110</v>
+      </c>
+      <c r="X71" s="2"/>
       <c r="Y71" t="s" s="2">
-        <v>78</v>
+        <v>457</v>
       </c>
       <c r="Z71" t="s" s="2">
         <v>78</v>
@@ -10286,31 +10304,31 @@
         <v>78</v>
       </c>
       <c r="AE71" t="s" s="2">
-        <v>189</v>
+        <v>453</v>
       </c>
       <c r="AF71" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AG71" t="s" s="2">
-        <v>80</v>
+        <v>86</v>
       </c>
       <c r="AH71" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AI71" t="s" s="2">
-        <v>137</v>
+        <v>98</v>
       </c>
       <c r="AJ71" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AK71" t="s" s="2">
-        <v>78</v>
+        <v>458</v>
       </c>
       <c r="AL71" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AM71" t="s" s="2">
-        <v>78</v>
+        <v>459</v>
       </c>
       <c r="AN71" t="s" s="2">
         <v>78</v>
@@ -10318,7 +10336,7 @@
     </row>
     <row r="72">
       <c r="A72" t="s" s="2">
-        <v>451</v>
+        <v>460</v>
       </c>
       <c r="B72" s="2"/>
       <c r="C72" t="s" s="2">
@@ -10329,7 +10347,7 @@
         <v>79</v>
       </c>
       <c r="F72" t="s" s="2">
-        <v>80</v>
+        <v>86</v>
       </c>
       <c r="G72" t="s" s="2">
         <v>78</v>
@@ -10338,23 +10356,19 @@
         <v>78</v>
       </c>
       <c r="I72" t="s" s="2">
-        <v>87</v>
+        <v>78</v>
       </c>
       <c r="J72" t="s" s="2">
-        <v>452</v>
+        <v>180</v>
       </c>
       <c r="K72" t="s" s="2">
-        <v>453</v>
+        <v>181</v>
       </c>
       <c r="L72" t="s" s="2">
-        <v>454</v>
-      </c>
-      <c r="M72" t="s" s="2">
-        <v>455</v>
-      </c>
-      <c r="N72" t="s" s="2">
-        <v>456</v>
-      </c>
+        <v>182</v>
+      </c>
+      <c r="M72" s="2"/>
+      <c r="N72" s="2"/>
       <c r="O72" t="s" s="2">
         <v>78</v>
       </c>
@@ -10402,31 +10416,31 @@
         <v>78</v>
       </c>
       <c r="AE72" t="s" s="2">
-        <v>457</v>
+        <v>183</v>
       </c>
       <c r="AF72" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AG72" t="s" s="2">
-        <v>80</v>
+        <v>86</v>
       </c>
       <c r="AH72" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AI72" t="s" s="2">
-        <v>98</v>
+        <v>78</v>
       </c>
       <c r="AJ72" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AK72" t="s" s="2">
-        <v>458</v>
+        <v>184</v>
       </c>
       <c r="AL72" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AM72" t="s" s="2">
-        <v>459</v>
+        <v>78</v>
       </c>
       <c r="AN72" t="s" s="2">
         <v>78</v>
@@ -10434,18 +10448,18 @@
     </row>
     <row r="73">
       <c r="A73" t="s" s="2">
-        <v>460</v>
+        <v>461</v>
       </c>
       <c r="B73" s="2"/>
       <c r="C73" t="s" s="2">
-        <v>78</v>
+        <v>160</v>
       </c>
       <c r="D73" s="2"/>
       <c r="E73" t="s" s="2">
         <v>79</v>
       </c>
       <c r="F73" t="s" s="2">
-        <v>86</v>
+        <v>80</v>
       </c>
       <c r="G73" t="s" s="2">
         <v>78</v>
@@ -10454,23 +10468,21 @@
         <v>78</v>
       </c>
       <c r="I73" t="s" s="2">
-        <v>87</v>
+        <v>78</v>
       </c>
       <c r="J73" t="s" s="2">
-        <v>180</v>
+        <v>131</v>
       </c>
       <c r="K73" t="s" s="2">
-        <v>461</v>
+        <v>186</v>
       </c>
       <c r="L73" t="s" s="2">
-        <v>462</v>
+        <v>187</v>
       </c>
       <c r="M73" t="s" s="2">
-        <v>463</v>
-      </c>
-      <c r="N73" t="s" s="2">
-        <v>464</v>
-      </c>
+        <v>163</v>
+      </c>
+      <c r="N73" s="2"/>
       <c r="O73" t="s" s="2">
         <v>78</v>
       </c>
@@ -10506,43 +10518,43 @@
         <v>78</v>
       </c>
       <c r="AA73" t="s" s="2">
-        <v>78</v>
+        <v>134</v>
       </c>
       <c r="AB73" t="s" s="2">
-        <v>78</v>
+        <v>188</v>
       </c>
       <c r="AC73" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AD73" t="s" s="2">
-        <v>78</v>
+        <v>135</v>
       </c>
       <c r="AE73" t="s" s="2">
-        <v>465</v>
+        <v>189</v>
       </c>
       <c r="AF73" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AG73" t="s" s="2">
-        <v>86</v>
+        <v>80</v>
       </c>
       <c r="AH73" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AI73" t="s" s="2">
-        <v>98</v>
+        <v>137</v>
       </c>
       <c r="AJ73" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AK73" t="s" s="2">
-        <v>466</v>
+        <v>184</v>
       </c>
       <c r="AL73" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AM73" t="s" s="2">
-        <v>467</v>
+        <v>78</v>
       </c>
       <c r="AN73" t="s" s="2">
         <v>78</v>
@@ -10550,9 +10562,11 @@
     </row>
     <row r="74">
       <c r="A74" t="s" s="2">
-        <v>468</v>
-      </c>
-      <c r="B74" s="2"/>
+        <v>461</v>
+      </c>
+      <c r="B74" t="s" s="2">
+        <v>462</v>
+      </c>
       <c r="C74" t="s" s="2">
         <v>78</v>
       </c>
@@ -10561,7 +10575,7 @@
         <v>79</v>
       </c>
       <c r="F74" t="s" s="2">
-        <v>86</v>
+        <v>80</v>
       </c>
       <c r="G74" t="s" s="2">
         <v>78</v>
@@ -10573,17 +10587,15 @@
         <v>78</v>
       </c>
       <c r="J74" t="s" s="2">
-        <v>201</v>
+        <v>463</v>
       </c>
       <c r="K74" t="s" s="2">
-        <v>469</v>
+        <v>464</v>
       </c>
       <c r="L74" t="s" s="2">
-        <v>470</v>
-      </c>
-      <c r="M74" t="s" s="2">
-        <v>278</v>
-      </c>
+        <v>465</v>
+      </c>
+      <c r="M74" s="2"/>
       <c r="N74" s="2"/>
       <c r="O74" t="s" s="2">
         <v>78</v>
@@ -10608,11 +10620,13 @@
         <v>78</v>
       </c>
       <c r="W74" t="s" s="2">
-        <v>110</v>
-      </c>
-      <c r="X74" s="2"/>
+        <v>78</v>
+      </c>
+      <c r="X74" t="s" s="2">
+        <v>78</v>
+      </c>
       <c r="Y74" t="s" s="2">
-        <v>471</v>
+        <v>78</v>
       </c>
       <c r="Z74" t="s" s="2">
         <v>78</v>
@@ -10630,31 +10644,31 @@
         <v>78</v>
       </c>
       <c r="AE74" t="s" s="2">
-        <v>468</v>
+        <v>189</v>
       </c>
       <c r="AF74" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AG74" t="s" s="2">
-        <v>86</v>
+        <v>80</v>
       </c>
       <c r="AH74" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AI74" t="s" s="2">
-        <v>98</v>
+        <v>137</v>
       </c>
       <c r="AJ74" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AK74" t="s" s="2">
-        <v>472</v>
+        <v>78</v>
       </c>
       <c r="AL74" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AM74" t="s" s="2">
-        <v>473</v>
+        <v>78</v>
       </c>
       <c r="AN74" t="s" s="2">
         <v>78</v>
@@ -10662,9 +10676,11 @@
     </row>
     <row r="75">
       <c r="A75" t="s" s="2">
-        <v>474</v>
-      </c>
-      <c r="B75" s="2"/>
+        <v>461</v>
+      </c>
+      <c r="B75" t="s" s="2">
+        <v>466</v>
+      </c>
       <c r="C75" t="s" s="2">
         <v>78</v>
       </c>
@@ -10673,7 +10689,7 @@
         <v>79</v>
       </c>
       <c r="F75" t="s" s="2">
-        <v>86</v>
+        <v>80</v>
       </c>
       <c r="G75" t="s" s="2">
         <v>78</v>
@@ -10685,13 +10701,13 @@
         <v>78</v>
       </c>
       <c r="J75" t="s" s="2">
-        <v>180</v>
+        <v>467</v>
       </c>
       <c r="K75" t="s" s="2">
-        <v>181</v>
+        <v>468</v>
       </c>
       <c r="L75" t="s" s="2">
-        <v>182</v>
+        <v>469</v>
       </c>
       <c r="M75" s="2"/>
       <c r="N75" s="2"/>
@@ -10742,25 +10758,25 @@
         <v>78</v>
       </c>
       <c r="AE75" t="s" s="2">
-        <v>183</v>
+        <v>189</v>
       </c>
       <c r="AF75" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AG75" t="s" s="2">
-        <v>86</v>
+        <v>80</v>
       </c>
       <c r="AH75" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AI75" t="s" s="2">
-        <v>78</v>
+        <v>137</v>
       </c>
       <c r="AJ75" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AK75" t="s" s="2">
-        <v>184</v>
+        <v>78</v>
       </c>
       <c r="AL75" t="s" s="2">
         <v>78</v>
@@ -10774,11 +10790,11 @@
     </row>
     <row r="76">
       <c r="A76" t="s" s="2">
-        <v>475</v>
+        <v>470</v>
       </c>
       <c r="B76" s="2"/>
       <c r="C76" t="s" s="2">
-        <v>160</v>
+        <v>78</v>
       </c>
       <c r="D76" s="2"/>
       <c r="E76" t="s" s="2">
@@ -10794,21 +10810,23 @@
         <v>78</v>
       </c>
       <c r="I76" t="s" s="2">
-        <v>78</v>
+        <v>87</v>
       </c>
       <c r="J76" t="s" s="2">
-        <v>131</v>
+        <v>293</v>
       </c>
       <c r="K76" t="s" s="2">
-        <v>186</v>
+        <v>294</v>
       </c>
       <c r="L76" t="s" s="2">
-        <v>187</v>
+        <v>295</v>
       </c>
       <c r="M76" t="s" s="2">
-        <v>163</v>
-      </c>
-      <c r="N76" s="2"/>
+        <v>296</v>
+      </c>
+      <c r="N76" t="s" s="2">
+        <v>297</v>
+      </c>
       <c r="O76" t="s" s="2">
         <v>78</v>
       </c>
@@ -10844,19 +10862,19 @@
         <v>78</v>
       </c>
       <c r="AA76" t="s" s="2">
-        <v>134</v>
+        <v>78</v>
       </c>
       <c r="AB76" t="s" s="2">
-        <v>188</v>
+        <v>78</v>
       </c>
       <c r="AC76" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AD76" t="s" s="2">
-        <v>135</v>
+        <v>78</v>
       </c>
       <c r="AE76" t="s" s="2">
-        <v>189</v>
+        <v>299</v>
       </c>
       <c r="AF76" t="s" s="2">
         <v>79</v>
@@ -10868,19 +10886,19 @@
         <v>78</v>
       </c>
       <c r="AI76" t="s" s="2">
-        <v>137</v>
+        <v>98</v>
       </c>
       <c r="AJ76" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AK76" t="s" s="2">
-        <v>184</v>
+        <v>300</v>
       </c>
       <c r="AL76" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AM76" t="s" s="2">
-        <v>78</v>
+        <v>301</v>
       </c>
       <c r="AN76" t="s" s="2">
         <v>78</v>
@@ -10888,11 +10906,9 @@
     </row>
     <row r="77">
       <c r="A77" t="s" s="2">
-        <v>475</v>
-      </c>
-      <c r="B77" t="s" s="2">
-        <v>476</v>
-      </c>
+        <v>471</v>
+      </c>
+      <c r="B77" s="2"/>
       <c r="C77" t="s" s="2">
         <v>78</v>
       </c>
@@ -10901,7 +10917,7 @@
         <v>79</v>
       </c>
       <c r="F77" t="s" s="2">
-        <v>80</v>
+        <v>86</v>
       </c>
       <c r="G77" t="s" s="2">
         <v>78</v>
@@ -10910,19 +10926,23 @@
         <v>78</v>
       </c>
       <c r="I77" t="s" s="2">
-        <v>78</v>
+        <v>87</v>
       </c>
       <c r="J77" t="s" s="2">
-        <v>477</v>
+        <v>180</v>
       </c>
       <c r="K77" t="s" s="2">
-        <v>478</v>
+        <v>303</v>
       </c>
       <c r="L77" t="s" s="2">
-        <v>479</v>
-      </c>
-      <c r="M77" s="2"/>
-      <c r="N77" s="2"/>
+        <v>304</v>
+      </c>
+      <c r="M77" t="s" s="2">
+        <v>305</v>
+      </c>
+      <c r="N77" t="s" s="2">
+        <v>306</v>
+      </c>
       <c r="O77" t="s" s="2">
         <v>78</v>
       </c>
@@ -10970,31 +10990,31 @@
         <v>78</v>
       </c>
       <c r="AE77" t="s" s="2">
-        <v>189</v>
+        <v>307</v>
       </c>
       <c r="AF77" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AG77" t="s" s="2">
-        <v>80</v>
+        <v>86</v>
       </c>
       <c r="AH77" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AI77" t="s" s="2">
-        <v>137</v>
+        <v>98</v>
       </c>
       <c r="AJ77" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AK77" t="s" s="2">
-        <v>78</v>
+        <v>308</v>
       </c>
       <c r="AL77" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AM77" t="s" s="2">
-        <v>78</v>
+        <v>309</v>
       </c>
       <c r="AN77" t="s" s="2">
         <v>78</v>
@@ -11002,7 +11022,7 @@
     </row>
     <row r="78">
       <c r="A78" t="s" s="2">
-        <v>480</v>
+        <v>472</v>
       </c>
       <c r="B78" s="2"/>
       <c r="C78" t="s" s="2">
@@ -11013,7 +11033,7 @@
         <v>79</v>
       </c>
       <c r="F78" t="s" s="2">
-        <v>80</v>
+        <v>86</v>
       </c>
       <c r="G78" t="s" s="2">
         <v>78</v>
@@ -11022,23 +11042,21 @@
         <v>78</v>
       </c>
       <c r="I78" t="s" s="2">
-        <v>87</v>
+        <v>78</v>
       </c>
       <c r="J78" t="s" s="2">
-        <v>452</v>
+        <v>201</v>
       </c>
       <c r="K78" t="s" s="2">
-        <v>453</v>
+        <v>473</v>
       </c>
       <c r="L78" t="s" s="2">
-        <v>454</v>
+        <v>474</v>
       </c>
       <c r="M78" t="s" s="2">
-        <v>455</v>
-      </c>
-      <c r="N78" t="s" s="2">
-        <v>456</v>
-      </c>
+        <v>278</v>
+      </c>
+      <c r="N78" s="2"/>
       <c r="O78" t="s" s="2">
         <v>78</v>
       </c>
@@ -11062,13 +11080,11 @@
         <v>78</v>
       </c>
       <c r="W78" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="X78" t="s" s="2">
-        <v>78</v>
-      </c>
+        <v>110</v>
+      </c>
+      <c r="X78" s="2"/>
       <c r="Y78" t="s" s="2">
-        <v>78</v>
+        <v>475</v>
       </c>
       <c r="Z78" t="s" s="2">
         <v>78</v>
@@ -11086,13 +11102,13 @@
         <v>78</v>
       </c>
       <c r="AE78" t="s" s="2">
-        <v>457</v>
+        <v>472</v>
       </c>
       <c r="AF78" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AG78" t="s" s="2">
-        <v>80</v>
+        <v>86</v>
       </c>
       <c r="AH78" t="s" s="2">
         <v>78</v>
@@ -11104,13 +11120,13 @@
         <v>78</v>
       </c>
       <c r="AK78" t="s" s="2">
-        <v>458</v>
+        <v>476</v>
       </c>
       <c r="AL78" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AM78" t="s" s="2">
-        <v>459</v>
+        <v>477</v>
       </c>
       <c r="AN78" t="s" s="2">
         <v>78</v>
@@ -11118,7 +11134,7 @@
     </row>
     <row r="79">
       <c r="A79" t="s" s="2">
-        <v>481</v>
+        <v>478</v>
       </c>
       <c r="B79" s="2"/>
       <c r="C79" t="s" s="2">
@@ -11138,23 +11154,19 @@
         <v>78</v>
       </c>
       <c r="I79" t="s" s="2">
-        <v>87</v>
+        <v>78</v>
       </c>
       <c r="J79" t="s" s="2">
         <v>180</v>
       </c>
       <c r="K79" t="s" s="2">
-        <v>461</v>
+        <v>181</v>
       </c>
       <c r="L79" t="s" s="2">
-        <v>462</v>
-      </c>
-      <c r="M79" t="s" s="2">
-        <v>463</v>
-      </c>
-      <c r="N79" t="s" s="2">
-        <v>464</v>
-      </c>
+        <v>182</v>
+      </c>
+      <c r="M79" s="2"/>
+      <c r="N79" s="2"/>
       <c r="O79" t="s" s="2">
         <v>78</v>
       </c>
@@ -11202,7 +11214,7 @@
         <v>78</v>
       </c>
       <c r="AE79" t="s" s="2">
-        <v>465</v>
+        <v>183</v>
       </c>
       <c r="AF79" t="s" s="2">
         <v>79</v>
@@ -11214,19 +11226,19 @@
         <v>78</v>
       </c>
       <c r="AI79" t="s" s="2">
-        <v>98</v>
+        <v>78</v>
       </c>
       <c r="AJ79" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AK79" t="s" s="2">
-        <v>466</v>
+        <v>184</v>
       </c>
       <c r="AL79" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AM79" t="s" s="2">
-        <v>467</v>
+        <v>78</v>
       </c>
       <c r="AN79" t="s" s="2">
         <v>78</v>
@@ -11234,18 +11246,18 @@
     </row>
     <row r="80">
       <c r="A80" t="s" s="2">
-        <v>482</v>
+        <v>479</v>
       </c>
       <c r="B80" s="2"/>
       <c r="C80" t="s" s="2">
-        <v>78</v>
+        <v>160</v>
       </c>
       <c r="D80" s="2"/>
       <c r="E80" t="s" s="2">
         <v>79</v>
       </c>
       <c r="F80" t="s" s="2">
-        <v>86</v>
+        <v>80</v>
       </c>
       <c r="G80" t="s" s="2">
         <v>78</v>
@@ -11257,20 +11269,18 @@
         <v>78</v>
       </c>
       <c r="J80" t="s" s="2">
-        <v>201</v>
+        <v>131</v>
       </c>
       <c r="K80" t="s" s="2">
-        <v>483</v>
+        <v>186</v>
       </c>
       <c r="L80" t="s" s="2">
-        <v>483</v>
+        <v>187</v>
       </c>
       <c r="M80" t="s" s="2">
-        <v>484</v>
-      </c>
-      <c r="N80" t="s" s="2">
-        <v>485</v>
-      </c>
+        <v>163</v>
+      </c>
+      <c r="N80" s="2"/>
       <c r="O80" t="s" s="2">
         <v>78</v>
       </c>
@@ -11294,55 +11304,55 @@
         <v>78</v>
       </c>
       <c r="W80" t="s" s="2">
-        <v>279</v>
+        <v>78</v>
       </c>
       <c r="X80" t="s" s="2">
-        <v>486</v>
+        <v>78</v>
       </c>
       <c r="Y80" t="s" s="2">
-        <v>487</v>
+        <v>78</v>
       </c>
       <c r="Z80" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AA80" t="s" s="2">
-        <v>78</v>
+        <v>134</v>
       </c>
       <c r="AB80" t="s" s="2">
-        <v>78</v>
+        <v>188</v>
       </c>
       <c r="AC80" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AD80" t="s" s="2">
-        <v>78</v>
+        <v>135</v>
       </c>
       <c r="AE80" t="s" s="2">
-        <v>482</v>
+        <v>189</v>
       </c>
       <c r="AF80" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AG80" t="s" s="2">
-        <v>86</v>
+        <v>80</v>
       </c>
       <c r="AH80" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AI80" t="s" s="2">
-        <v>98</v>
+        <v>137</v>
       </c>
       <c r="AJ80" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AK80" t="s" s="2">
-        <v>488</v>
+        <v>184</v>
       </c>
       <c r="AL80" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AM80" t="s" s="2">
-        <v>489</v>
+        <v>78</v>
       </c>
       <c r="AN80" t="s" s="2">
         <v>78</v>
@@ -11350,9 +11360,11 @@
     </row>
     <row r="81">
       <c r="A81" t="s" s="2">
-        <v>490</v>
-      </c>
-      <c r="B81" s="2"/>
+        <v>479</v>
+      </c>
+      <c r="B81" t="s" s="2">
+        <v>480</v>
+      </c>
       <c r="C81" t="s" s="2">
         <v>78</v>
       </c>
@@ -11361,7 +11373,7 @@
         <v>79</v>
       </c>
       <c r="F81" t="s" s="2">
-        <v>86</v>
+        <v>80</v>
       </c>
       <c r="G81" t="s" s="2">
         <v>78</v>
@@ -11373,13 +11385,13 @@
         <v>78</v>
       </c>
       <c r="J81" t="s" s="2">
-        <v>180</v>
+        <v>481</v>
       </c>
       <c r="K81" t="s" s="2">
-        <v>181</v>
+        <v>482</v>
       </c>
       <c r="L81" t="s" s="2">
-        <v>182</v>
+        <v>483</v>
       </c>
       <c r="M81" s="2"/>
       <c r="N81" s="2"/>
@@ -11430,25 +11442,25 @@
         <v>78</v>
       </c>
       <c r="AE81" t="s" s="2">
-        <v>183</v>
+        <v>189</v>
       </c>
       <c r="AF81" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AG81" t="s" s="2">
-        <v>86</v>
+        <v>80</v>
       </c>
       <c r="AH81" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AI81" t="s" s="2">
-        <v>78</v>
+        <v>137</v>
       </c>
       <c r="AJ81" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AK81" t="s" s="2">
-        <v>184</v>
+        <v>78</v>
       </c>
       <c r="AL81" t="s" s="2">
         <v>78</v>
@@ -11462,11 +11474,11 @@
     </row>
     <row r="82">
       <c r="A82" t="s" s="2">
-        <v>491</v>
+        <v>484</v>
       </c>
       <c r="B82" s="2"/>
       <c r="C82" t="s" s="2">
-        <v>160</v>
+        <v>78</v>
       </c>
       <c r="D82" s="2"/>
       <c r="E82" t="s" s="2">
@@ -11482,21 +11494,23 @@
         <v>78</v>
       </c>
       <c r="I82" t="s" s="2">
-        <v>78</v>
+        <v>87</v>
       </c>
       <c r="J82" t="s" s="2">
-        <v>131</v>
+        <v>293</v>
       </c>
       <c r="K82" t="s" s="2">
-        <v>186</v>
+        <v>294</v>
       </c>
       <c r="L82" t="s" s="2">
-        <v>187</v>
+        <v>295</v>
       </c>
       <c r="M82" t="s" s="2">
-        <v>163</v>
-      </c>
-      <c r="N82" s="2"/>
+        <v>296</v>
+      </c>
+      <c r="N82" t="s" s="2">
+        <v>297</v>
+      </c>
       <c r="O82" t="s" s="2">
         <v>78</v>
       </c>
@@ -11532,19 +11546,19 @@
         <v>78</v>
       </c>
       <c r="AA82" t="s" s="2">
-        <v>134</v>
+        <v>78</v>
       </c>
       <c r="AB82" t="s" s="2">
-        <v>188</v>
+        <v>78</v>
       </c>
       <c r="AC82" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AD82" t="s" s="2">
-        <v>135</v>
+        <v>78</v>
       </c>
       <c r="AE82" t="s" s="2">
-        <v>189</v>
+        <v>299</v>
       </c>
       <c r="AF82" t="s" s="2">
         <v>79</v>
@@ -11556,19 +11570,19 @@
         <v>78</v>
       </c>
       <c r="AI82" t="s" s="2">
-        <v>137</v>
+        <v>98</v>
       </c>
       <c r="AJ82" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AK82" t="s" s="2">
-        <v>184</v>
+        <v>300</v>
       </c>
       <c r="AL82" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AM82" t="s" s="2">
-        <v>78</v>
+        <v>301</v>
       </c>
       <c r="AN82" t="s" s="2">
         <v>78</v>
@@ -11576,11 +11590,9 @@
     </row>
     <row r="83">
       <c r="A83" t="s" s="2">
-        <v>491</v>
-      </c>
-      <c r="B83" t="s" s="2">
-        <v>492</v>
-      </c>
+        <v>485</v>
+      </c>
+      <c r="B83" s="2"/>
       <c r="C83" t="s" s="2">
         <v>78</v>
       </c>
@@ -11589,7 +11601,7 @@
         <v>79</v>
       </c>
       <c r="F83" t="s" s="2">
-        <v>80</v>
+        <v>86</v>
       </c>
       <c r="G83" t="s" s="2">
         <v>78</v>
@@ -11598,19 +11610,23 @@
         <v>78</v>
       </c>
       <c r="I83" t="s" s="2">
-        <v>78</v>
+        <v>87</v>
       </c>
       <c r="J83" t="s" s="2">
-        <v>493</v>
+        <v>180</v>
       </c>
       <c r="K83" t="s" s="2">
-        <v>494</v>
+        <v>303</v>
       </c>
       <c r="L83" t="s" s="2">
-        <v>495</v>
-      </c>
-      <c r="M83" s="2"/>
-      <c r="N83" s="2"/>
+        <v>304</v>
+      </c>
+      <c r="M83" t="s" s="2">
+        <v>305</v>
+      </c>
+      <c r="N83" t="s" s="2">
+        <v>306</v>
+      </c>
       <c r="O83" t="s" s="2">
         <v>78</v>
       </c>
@@ -11658,31 +11674,31 @@
         <v>78</v>
       </c>
       <c r="AE83" t="s" s="2">
-        <v>189</v>
+        <v>307</v>
       </c>
       <c r="AF83" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AG83" t="s" s="2">
-        <v>80</v>
+        <v>86</v>
       </c>
       <c r="AH83" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AI83" t="s" s="2">
-        <v>137</v>
+        <v>98</v>
       </c>
       <c r="AJ83" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AK83" t="s" s="2">
-        <v>78</v>
+        <v>308</v>
       </c>
       <c r="AL83" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AM83" t="s" s="2">
-        <v>78</v>
+        <v>309</v>
       </c>
       <c r="AN83" t="s" s="2">
         <v>78</v>
@@ -11690,7 +11706,7 @@
     </row>
     <row r="84">
       <c r="A84" t="s" s="2">
-        <v>496</v>
+        <v>486</v>
       </c>
       <c r="B84" s="2"/>
       <c r="C84" t="s" s="2">
@@ -11701,7 +11717,7 @@
         <v>79</v>
       </c>
       <c r="F84" t="s" s="2">
-        <v>80</v>
+        <v>86</v>
       </c>
       <c r="G84" t="s" s="2">
         <v>78</v>
@@ -11710,22 +11726,22 @@
         <v>78</v>
       </c>
       <c r="I84" t="s" s="2">
-        <v>87</v>
+        <v>78</v>
       </c>
       <c r="J84" t="s" s="2">
-        <v>452</v>
+        <v>201</v>
       </c>
       <c r="K84" t="s" s="2">
-        <v>453</v>
+        <v>487</v>
       </c>
       <c r="L84" t="s" s="2">
-        <v>454</v>
+        <v>487</v>
       </c>
       <c r="M84" t="s" s="2">
-        <v>455</v>
+        <v>488</v>
       </c>
       <c r="N84" t="s" s="2">
-        <v>456</v>
+        <v>489</v>
       </c>
       <c r="O84" t="s" s="2">
         <v>78</v>
@@ -11750,35 +11766,37 @@
         <v>78</v>
       </c>
       <c r="W84" t="s" s="2">
-        <v>78</v>
+        <v>279</v>
       </c>
       <c r="X84" t="s" s="2">
-        <v>78</v>
+        <v>490</v>
       </c>
       <c r="Y84" t="s" s="2">
-        <v>78</v>
+        <v>491</v>
       </c>
       <c r="Z84" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AA84" t="s" s="2">
-        <v>171</v>
-      </c>
-      <c r="AB84" s="2"/>
+        <v>78</v>
+      </c>
+      <c r="AB84" t="s" s="2">
+        <v>78</v>
+      </c>
       <c r="AC84" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AD84" t="s" s="2">
-        <v>135</v>
+        <v>78</v>
       </c>
       <c r="AE84" t="s" s="2">
-        <v>457</v>
+        <v>486</v>
       </c>
       <c r="AF84" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AG84" t="s" s="2">
-        <v>80</v>
+        <v>86</v>
       </c>
       <c r="AH84" t="s" s="2">
         <v>78</v>
@@ -11790,13 +11808,13 @@
         <v>78</v>
       </c>
       <c r="AK84" t="s" s="2">
-        <v>458</v>
+        <v>492</v>
       </c>
       <c r="AL84" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AM84" t="s" s="2">
-        <v>459</v>
+        <v>493</v>
       </c>
       <c r="AN84" t="s" s="2">
         <v>78</v>
@@ -11804,11 +11822,9 @@
     </row>
     <row r="85">
       <c r="A85" t="s" s="2">
-        <v>496</v>
-      </c>
-      <c r="B85" t="s" s="2">
-        <v>497</v>
-      </c>
+        <v>494</v>
+      </c>
+      <c r="B85" s="2"/>
       <c r="C85" t="s" s="2">
         <v>78</v>
       </c>
@@ -11826,23 +11842,19 @@
         <v>78</v>
       </c>
       <c r="I85" t="s" s="2">
-        <v>87</v>
+        <v>78</v>
       </c>
       <c r="J85" t="s" s="2">
-        <v>452</v>
+        <v>180</v>
       </c>
       <c r="K85" t="s" s="2">
-        <v>498</v>
+        <v>181</v>
       </c>
       <c r="L85" t="s" s="2">
-        <v>499</v>
-      </c>
-      <c r="M85" t="s" s="2">
-        <v>500</v>
-      </c>
-      <c r="N85" t="s" s="2">
-        <v>501</v>
-      </c>
+        <v>182</v>
+      </c>
+      <c r="M85" s="2"/>
+      <c r="N85" s="2"/>
       <c r="O85" t="s" s="2">
         <v>78</v>
       </c>
@@ -11866,11 +11878,13 @@
         <v>78</v>
       </c>
       <c r="W85" t="s" s="2">
-        <v>110</v>
-      </c>
-      <c r="X85" s="2"/>
+        <v>78</v>
+      </c>
+      <c r="X85" t="s" s="2">
+        <v>78</v>
+      </c>
       <c r="Y85" t="s" s="2">
-        <v>502</v>
+        <v>78</v>
       </c>
       <c r="Z85" t="s" s="2">
         <v>78</v>
@@ -11888,31 +11902,31 @@
         <v>78</v>
       </c>
       <c r="AE85" t="s" s="2">
-        <v>457</v>
+        <v>183</v>
       </c>
       <c r="AF85" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AG85" t="s" s="2">
-        <v>80</v>
+        <v>86</v>
       </c>
       <c r="AH85" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AI85" t="s" s="2">
-        <v>98</v>
+        <v>78</v>
       </c>
       <c r="AJ85" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AK85" t="s" s="2">
-        <v>458</v>
+        <v>184</v>
       </c>
       <c r="AL85" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AM85" t="s" s="2">
-        <v>459</v>
+        <v>78</v>
       </c>
       <c r="AN85" t="s" s="2">
         <v>78</v>
@@ -11920,18 +11934,18 @@
     </row>
     <row r="86">
       <c r="A86" t="s" s="2">
-        <v>503</v>
+        <v>495</v>
       </c>
       <c r="B86" s="2"/>
       <c r="C86" t="s" s="2">
-        <v>78</v>
+        <v>160</v>
       </c>
       <c r="D86" s="2"/>
       <c r="E86" t="s" s="2">
         <v>79</v>
       </c>
       <c r="F86" t="s" s="2">
-        <v>86</v>
+        <v>80</v>
       </c>
       <c r="G86" t="s" s="2">
         <v>78</v>
@@ -11943,15 +11957,17 @@
         <v>78</v>
       </c>
       <c r="J86" t="s" s="2">
-        <v>180</v>
+        <v>131</v>
       </c>
       <c r="K86" t="s" s="2">
-        <v>181</v>
+        <v>186</v>
       </c>
       <c r="L86" t="s" s="2">
-        <v>182</v>
-      </c>
-      <c r="M86" s="2"/>
+        <v>187</v>
+      </c>
+      <c r="M86" t="s" s="2">
+        <v>163</v>
+      </c>
       <c r="N86" s="2"/>
       <c r="O86" t="s" s="2">
         <v>78</v>
@@ -11988,31 +12004,31 @@
         <v>78</v>
       </c>
       <c r="AA86" t="s" s="2">
-        <v>78</v>
+        <v>134</v>
       </c>
       <c r="AB86" t="s" s="2">
-        <v>78</v>
+        <v>188</v>
       </c>
       <c r="AC86" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AD86" t="s" s="2">
-        <v>78</v>
+        <v>135</v>
       </c>
       <c r="AE86" t="s" s="2">
-        <v>183</v>
+        <v>189</v>
       </c>
       <c r="AF86" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AG86" t="s" s="2">
-        <v>86</v>
+        <v>80</v>
       </c>
       <c r="AH86" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AI86" t="s" s="2">
-        <v>78</v>
+        <v>137</v>
       </c>
       <c r="AJ86" t="s" s="2">
         <v>78</v>
@@ -12032,11 +12048,13 @@
     </row>
     <row r="87">
       <c r="A87" t="s" s="2">
-        <v>504</v>
-      </c>
-      <c r="B87" s="2"/>
+        <v>495</v>
+      </c>
+      <c r="B87" t="s" s="2">
+        <v>496</v>
+      </c>
       <c r="C87" t="s" s="2">
-        <v>160</v>
+        <v>78</v>
       </c>
       <c r="D87" s="2"/>
       <c r="E87" t="s" s="2">
@@ -12055,17 +12073,15 @@
         <v>78</v>
       </c>
       <c r="J87" t="s" s="2">
-        <v>131</v>
+        <v>497</v>
       </c>
       <c r="K87" t="s" s="2">
-        <v>186</v>
+        <v>498</v>
       </c>
       <c r="L87" t="s" s="2">
-        <v>187</v>
-      </c>
-      <c r="M87" t="s" s="2">
-        <v>163</v>
-      </c>
+        <v>499</v>
+      </c>
+      <c r="M87" s="2"/>
       <c r="N87" s="2"/>
       <c r="O87" t="s" s="2">
         <v>78</v>
@@ -12102,16 +12118,16 @@
         <v>78</v>
       </c>
       <c r="AA87" t="s" s="2">
-        <v>134</v>
+        <v>78</v>
       </c>
       <c r="AB87" t="s" s="2">
-        <v>188</v>
+        <v>78</v>
       </c>
       <c r="AC87" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AD87" t="s" s="2">
-        <v>135</v>
+        <v>78</v>
       </c>
       <c r="AE87" t="s" s="2">
         <v>189</v>
@@ -12132,7 +12148,7 @@
         <v>78</v>
       </c>
       <c r="AK87" t="s" s="2">
-        <v>184</v>
+        <v>78</v>
       </c>
       <c r="AL87" t="s" s="2">
         <v>78</v>
@@ -12146,7 +12162,7 @@
     </row>
     <row r="88">
       <c r="A88" t="s" s="2">
-        <v>505</v>
+        <v>500</v>
       </c>
       <c r="B88" s="2"/>
       <c r="C88" t="s" s="2">
@@ -12154,10 +12170,10 @@
       </c>
       <c r="D88" s="2"/>
       <c r="E88" t="s" s="2">
-        <v>86</v>
+        <v>79</v>
       </c>
       <c r="F88" t="s" s="2">
-        <v>86</v>
+        <v>80</v>
       </c>
       <c r="G88" t="s" s="2">
         <v>78</v>
@@ -12169,26 +12185,26 @@
         <v>87</v>
       </c>
       <c r="J88" t="s" s="2">
-        <v>100</v>
+        <v>293</v>
       </c>
       <c r="K88" t="s" s="2">
-        <v>506</v>
+        <v>294</v>
       </c>
       <c r="L88" t="s" s="2">
-        <v>507</v>
+        <v>295</v>
       </c>
       <c r="M88" t="s" s="2">
-        <v>508</v>
+        <v>296</v>
       </c>
       <c r="N88" t="s" s="2">
-        <v>509</v>
+        <v>297</v>
       </c>
       <c r="O88" t="s" s="2">
         <v>78</v>
       </c>
       <c r="P88" s="2"/>
       <c r="Q88" t="s" s="2">
-        <v>510</v>
+        <v>78</v>
       </c>
       <c r="R88" t="s" s="2">
         <v>78</v>
@@ -12218,25 +12234,23 @@
         <v>78</v>
       </c>
       <c r="AA88" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AB88" t="s" s="2">
-        <v>78</v>
-      </c>
+        <v>171</v>
+      </c>
+      <c r="AB88" s="2"/>
       <c r="AC88" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AD88" t="s" s="2">
-        <v>78</v>
+        <v>135</v>
       </c>
       <c r="AE88" t="s" s="2">
-        <v>511</v>
+        <v>299</v>
       </c>
       <c r="AF88" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AG88" t="s" s="2">
-        <v>86</v>
+        <v>80</v>
       </c>
       <c r="AH88" t="s" s="2">
         <v>78</v>
@@ -12248,13 +12262,13 @@
         <v>78</v>
       </c>
       <c r="AK88" t="s" s="2">
-        <v>512</v>
+        <v>300</v>
       </c>
       <c r="AL88" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AM88" t="s" s="2">
-        <v>513</v>
+        <v>301</v>
       </c>
       <c r="AN88" t="s" s="2">
         <v>78</v>
@@ -12262,9 +12276,11 @@
     </row>
     <row r="89">
       <c r="A89" t="s" s="2">
-        <v>514</v>
-      </c>
-      <c r="B89" s="2"/>
+        <v>500</v>
+      </c>
+      <c r="B89" t="s" s="2">
+        <v>501</v>
+      </c>
       <c r="C89" t="s" s="2">
         <v>78</v>
       </c>
@@ -12285,18 +12301,20 @@
         <v>87</v>
       </c>
       <c r="J89" t="s" s="2">
-        <v>180</v>
+        <v>293</v>
       </c>
       <c r="K89" t="s" s="2">
-        <v>515</v>
+        <v>502</v>
       </c>
       <c r="L89" t="s" s="2">
-        <v>516</v>
+        <v>503</v>
       </c>
       <c r="M89" t="s" s="2">
-        <v>517</v>
-      </c>
-      <c r="N89" s="2"/>
+        <v>504</v>
+      </c>
+      <c r="N89" t="s" s="2">
+        <v>505</v>
+      </c>
       <c r="O89" t="s" s="2">
         <v>78</v>
       </c>
@@ -12320,13 +12338,11 @@
         <v>78</v>
       </c>
       <c r="W89" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="X89" t="s" s="2">
-        <v>78</v>
-      </c>
+        <v>110</v>
+      </c>
+      <c r="X89" s="2"/>
       <c r="Y89" t="s" s="2">
-        <v>78</v>
+        <v>506</v>
       </c>
       <c r="Z89" t="s" s="2">
         <v>78</v>
@@ -12344,13 +12360,13 @@
         <v>78</v>
       </c>
       <c r="AE89" t="s" s="2">
-        <v>518</v>
+        <v>299</v>
       </c>
       <c r="AF89" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AG89" t="s" s="2">
-        <v>86</v>
+        <v>80</v>
       </c>
       <c r="AH89" t="s" s="2">
         <v>78</v>
@@ -12362,13 +12378,13 @@
         <v>78</v>
       </c>
       <c r="AK89" t="s" s="2">
-        <v>519</v>
+        <v>300</v>
       </c>
       <c r="AL89" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AM89" t="s" s="2">
-        <v>520</v>
+        <v>301</v>
       </c>
       <c r="AN89" t="s" s="2">
         <v>78</v>
@@ -12376,7 +12392,7 @@
     </row>
     <row r="90">
       <c r="A90" t="s" s="2">
-        <v>521</v>
+        <v>507</v>
       </c>
       <c r="B90" s="2"/>
       <c r="C90" t="s" s="2">
@@ -12396,21 +12412,19 @@
         <v>78</v>
       </c>
       <c r="I90" t="s" s="2">
-        <v>87</v>
+        <v>78</v>
       </c>
       <c r="J90" t="s" s="2">
-        <v>106</v>
+        <v>180</v>
       </c>
       <c r="K90" t="s" s="2">
-        <v>522</v>
+        <v>181</v>
       </c>
       <c r="L90" t="s" s="2">
-        <v>523</v>
+        <v>182</v>
       </c>
       <c r="M90" s="2"/>
-      <c r="N90" t="s" s="2">
-        <v>524</v>
-      </c>
+      <c r="N90" s="2"/>
       <c r="O90" t="s" s="2">
         <v>78</v>
       </c>
@@ -12458,7 +12472,7 @@
         <v>78</v>
       </c>
       <c r="AE90" t="s" s="2">
-        <v>525</v>
+        <v>183</v>
       </c>
       <c r="AF90" t="s" s="2">
         <v>79</v>
@@ -12470,19 +12484,19 @@
         <v>78</v>
       </c>
       <c r="AI90" t="s" s="2">
-        <v>98</v>
+        <v>78</v>
       </c>
       <c r="AJ90" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AK90" t="s" s="2">
-        <v>526</v>
+        <v>184</v>
       </c>
       <c r="AL90" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AM90" t="s" s="2">
-        <v>527</v>
+        <v>78</v>
       </c>
       <c r="AN90" t="s" s="2">
         <v>78</v>
@@ -12490,18 +12504,18 @@
     </row>
     <row r="91">
       <c r="A91" t="s" s="2">
-        <v>528</v>
+        <v>508</v>
       </c>
       <c r="B91" s="2"/>
       <c r="C91" t="s" s="2">
-        <v>78</v>
+        <v>160</v>
       </c>
       <c r="D91" s="2"/>
       <c r="E91" t="s" s="2">
         <v>79</v>
       </c>
       <c r="F91" t="s" s="2">
-        <v>86</v>
+        <v>80</v>
       </c>
       <c r="G91" t="s" s="2">
         <v>78</v>
@@ -12510,21 +12524,21 @@
         <v>78</v>
       </c>
       <c r="I91" t="s" s="2">
-        <v>87</v>
+        <v>78</v>
       </c>
       <c r="J91" t="s" s="2">
-        <v>180</v>
+        <v>131</v>
       </c>
       <c r="K91" t="s" s="2">
-        <v>529</v>
+        <v>186</v>
       </c>
       <c r="L91" t="s" s="2">
-        <v>530</v>
-      </c>
-      <c r="M91" s="2"/>
-      <c r="N91" t="s" s="2">
-        <v>531</v>
-      </c>
+        <v>187</v>
+      </c>
+      <c r="M91" t="s" s="2">
+        <v>163</v>
+      </c>
+      <c r="N91" s="2"/>
       <c r="O91" t="s" s="2">
         <v>78</v>
       </c>
@@ -12560,43 +12574,43 @@
         <v>78</v>
       </c>
       <c r="AA91" t="s" s="2">
-        <v>78</v>
+        <v>134</v>
       </c>
       <c r="AB91" t="s" s="2">
-        <v>78</v>
+        <v>188</v>
       </c>
       <c r="AC91" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AD91" t="s" s="2">
-        <v>78</v>
+        <v>135</v>
       </c>
       <c r="AE91" t="s" s="2">
-        <v>532</v>
+        <v>189</v>
       </c>
       <c r="AF91" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AG91" t="s" s="2">
-        <v>86</v>
+        <v>80</v>
       </c>
       <c r="AH91" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AI91" t="s" s="2">
-        <v>98</v>
+        <v>137</v>
       </c>
       <c r="AJ91" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AK91" t="s" s="2">
-        <v>533</v>
+        <v>184</v>
       </c>
       <c r="AL91" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AM91" t="s" s="2">
-        <v>534</v>
+        <v>78</v>
       </c>
       <c r="AN91" t="s" s="2">
         <v>78</v>
@@ -12604,7 +12618,7 @@
     </row>
     <row r="92">
       <c r="A92" t="s" s="2">
-        <v>535</v>
+        <v>509</v>
       </c>
       <c r="B92" s="2"/>
       <c r="C92" t="s" s="2">
@@ -12612,7 +12626,7 @@
       </c>
       <c r="D92" s="2"/>
       <c r="E92" t="s" s="2">
-        <v>79</v>
+        <v>86</v>
       </c>
       <c r="F92" t="s" s="2">
         <v>86</v>
@@ -12627,26 +12641,26 @@
         <v>87</v>
       </c>
       <c r="J92" t="s" s="2">
-        <v>536</v>
+        <v>100</v>
       </c>
       <c r="K92" t="s" s="2">
-        <v>537</v>
+        <v>510</v>
       </c>
       <c r="L92" t="s" s="2">
-        <v>538</v>
+        <v>511</v>
       </c>
       <c r="M92" t="s" s="2">
-        <v>539</v>
+        <v>512</v>
       </c>
       <c r="N92" t="s" s="2">
-        <v>540</v>
+        <v>513</v>
       </c>
       <c r="O92" t="s" s="2">
         <v>78</v>
       </c>
       <c r="P92" s="2"/>
       <c r="Q92" t="s" s="2">
-        <v>78</v>
+        <v>514</v>
       </c>
       <c r="R92" t="s" s="2">
         <v>78</v>
@@ -12688,7 +12702,7 @@
         <v>78</v>
       </c>
       <c r="AE92" t="s" s="2">
-        <v>541</v>
+        <v>515</v>
       </c>
       <c r="AF92" t="s" s="2">
         <v>79</v>
@@ -12706,13 +12720,13 @@
         <v>78</v>
       </c>
       <c r="AK92" t="s" s="2">
-        <v>542</v>
+        <v>516</v>
       </c>
       <c r="AL92" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AM92" t="s" s="2">
-        <v>543</v>
+        <v>517</v>
       </c>
       <c r="AN92" t="s" s="2">
         <v>78</v>
@@ -12720,11 +12734,9 @@
     </row>
     <row r="93">
       <c r="A93" t="s" s="2">
-        <v>496</v>
-      </c>
-      <c r="B93" t="s" s="2">
-        <v>544</v>
-      </c>
+        <v>518</v>
+      </c>
+      <c r="B93" s="2"/>
       <c r="C93" t="s" s="2">
         <v>78</v>
       </c>
@@ -12745,20 +12757,18 @@
         <v>87</v>
       </c>
       <c r="J93" t="s" s="2">
-        <v>452</v>
+        <v>180</v>
       </c>
       <c r="K93" t="s" s="2">
-        <v>545</v>
+        <v>519</v>
       </c>
       <c r="L93" t="s" s="2">
-        <v>546</v>
+        <v>520</v>
       </c>
       <c r="M93" t="s" s="2">
-        <v>500</v>
-      </c>
-      <c r="N93" t="s" s="2">
-        <v>501</v>
-      </c>
+        <v>521</v>
+      </c>
+      <c r="N93" s="2"/>
       <c r="O93" t="s" s="2">
         <v>78</v>
       </c>
@@ -12782,11 +12792,13 @@
         <v>78</v>
       </c>
       <c r="W93" t="s" s="2">
-        <v>110</v>
-      </c>
-      <c r="X93" s="2"/>
+        <v>78</v>
+      </c>
+      <c r="X93" t="s" s="2">
+        <v>78</v>
+      </c>
       <c r="Y93" t="s" s="2">
-        <v>547</v>
+        <v>78</v>
       </c>
       <c r="Z93" t="s" s="2">
         <v>78</v>
@@ -12804,13 +12816,13 @@
         <v>78</v>
       </c>
       <c r="AE93" t="s" s="2">
-        <v>457</v>
+        <v>522</v>
       </c>
       <c r="AF93" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AG93" t="s" s="2">
-        <v>80</v>
+        <v>86</v>
       </c>
       <c r="AH93" t="s" s="2">
         <v>78</v>
@@ -12822,13 +12834,13 @@
         <v>78</v>
       </c>
       <c r="AK93" t="s" s="2">
-        <v>458</v>
+        <v>523</v>
       </c>
       <c r="AL93" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AM93" t="s" s="2">
-        <v>459</v>
+        <v>524</v>
       </c>
       <c r="AN93" t="s" s="2">
         <v>78</v>
@@ -12836,7 +12848,7 @@
     </row>
     <row r="94">
       <c r="A94" t="s" s="2">
-        <v>503</v>
+        <v>525</v>
       </c>
       <c r="B94" s="2"/>
       <c r="C94" t="s" s="2">
@@ -12856,19 +12868,21 @@
         <v>78</v>
       </c>
       <c r="I94" t="s" s="2">
-        <v>78</v>
+        <v>87</v>
       </c>
       <c r="J94" t="s" s="2">
-        <v>180</v>
+        <v>106</v>
       </c>
       <c r="K94" t="s" s="2">
-        <v>181</v>
+        <v>526</v>
       </c>
       <c r="L94" t="s" s="2">
-        <v>182</v>
+        <v>527</v>
       </c>
       <c r="M94" s="2"/>
-      <c r="N94" s="2"/>
+      <c r="N94" t="s" s="2">
+        <v>528</v>
+      </c>
       <c r="O94" t="s" s="2">
         <v>78</v>
       </c>
@@ -12916,7 +12930,7 @@
         <v>78</v>
       </c>
       <c r="AE94" t="s" s="2">
-        <v>183</v>
+        <v>529</v>
       </c>
       <c r="AF94" t="s" s="2">
         <v>79</v>
@@ -12928,19 +12942,19 @@
         <v>78</v>
       </c>
       <c r="AI94" t="s" s="2">
-        <v>78</v>
+        <v>98</v>
       </c>
       <c r="AJ94" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AK94" t="s" s="2">
-        <v>184</v>
+        <v>530</v>
       </c>
       <c r="AL94" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AM94" t="s" s="2">
-        <v>78</v>
+        <v>531</v>
       </c>
       <c r="AN94" t="s" s="2">
         <v>78</v>
@@ -12948,18 +12962,18 @@
     </row>
     <row r="95">
       <c r="A95" t="s" s="2">
-        <v>504</v>
+        <v>532</v>
       </c>
       <c r="B95" s="2"/>
       <c r="C95" t="s" s="2">
-        <v>160</v>
+        <v>78</v>
       </c>
       <c r="D95" s="2"/>
       <c r="E95" t="s" s="2">
         <v>79</v>
       </c>
       <c r="F95" t="s" s="2">
-        <v>80</v>
+        <v>86</v>
       </c>
       <c r="G95" t="s" s="2">
         <v>78</v>
@@ -12968,21 +12982,21 @@
         <v>78</v>
       </c>
       <c r="I95" t="s" s="2">
-        <v>78</v>
+        <v>87</v>
       </c>
       <c r="J95" t="s" s="2">
-        <v>131</v>
+        <v>180</v>
       </c>
       <c r="K95" t="s" s="2">
-        <v>186</v>
+        <v>533</v>
       </c>
       <c r="L95" t="s" s="2">
-        <v>187</v>
-      </c>
-      <c r="M95" t="s" s="2">
-        <v>163</v>
-      </c>
-      <c r="N95" s="2"/>
+        <v>534</v>
+      </c>
+      <c r="M95" s="2"/>
+      <c r="N95" t="s" s="2">
+        <v>535</v>
+      </c>
       <c r="O95" t="s" s="2">
         <v>78</v>
       </c>
@@ -13018,43 +13032,43 @@
         <v>78</v>
       </c>
       <c r="AA95" t="s" s="2">
-        <v>134</v>
+        <v>78</v>
       </c>
       <c r="AB95" t="s" s="2">
-        <v>188</v>
+        <v>78</v>
       </c>
       <c r="AC95" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AD95" t="s" s="2">
-        <v>135</v>
+        <v>78</v>
       </c>
       <c r="AE95" t="s" s="2">
-        <v>189</v>
+        <v>536</v>
       </c>
       <c r="AF95" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AG95" t="s" s="2">
-        <v>80</v>
+        <v>86</v>
       </c>
       <c r="AH95" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AI95" t="s" s="2">
-        <v>137</v>
+        <v>98</v>
       </c>
       <c r="AJ95" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AK95" t="s" s="2">
-        <v>184</v>
+        <v>537</v>
       </c>
       <c r="AL95" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AM95" t="s" s="2">
-        <v>78</v>
+        <v>538</v>
       </c>
       <c r="AN95" t="s" s="2">
         <v>78</v>
@@ -13062,7 +13076,7 @@
     </row>
     <row r="96">
       <c r="A96" t="s" s="2">
-        <v>505</v>
+        <v>539</v>
       </c>
       <c r="B96" s="2"/>
       <c r="C96" t="s" s="2">
@@ -13070,7 +13084,7 @@
       </c>
       <c r="D96" s="2"/>
       <c r="E96" t="s" s="2">
-        <v>86</v>
+        <v>79</v>
       </c>
       <c r="F96" t="s" s="2">
         <v>86</v>
@@ -13085,26 +13099,26 @@
         <v>87</v>
       </c>
       <c r="J96" t="s" s="2">
-        <v>100</v>
+        <v>540</v>
       </c>
       <c r="K96" t="s" s="2">
-        <v>506</v>
+        <v>541</v>
       </c>
       <c r="L96" t="s" s="2">
-        <v>507</v>
+        <v>542</v>
       </c>
       <c r="M96" t="s" s="2">
-        <v>508</v>
+        <v>543</v>
       </c>
       <c r="N96" t="s" s="2">
-        <v>509</v>
+        <v>544</v>
       </c>
       <c r="O96" t="s" s="2">
         <v>78</v>
       </c>
       <c r="P96" s="2"/>
       <c r="Q96" t="s" s="2">
-        <v>548</v>
+        <v>78</v>
       </c>
       <c r="R96" t="s" s="2">
         <v>78</v>
@@ -13146,7 +13160,7 @@
         <v>78</v>
       </c>
       <c r="AE96" t="s" s="2">
-        <v>511</v>
+        <v>545</v>
       </c>
       <c r="AF96" t="s" s="2">
         <v>79</v>
@@ -13164,13 +13178,13 @@
         <v>78</v>
       </c>
       <c r="AK96" t="s" s="2">
-        <v>512</v>
+        <v>546</v>
       </c>
       <c r="AL96" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AM96" t="s" s="2">
-        <v>513</v>
+        <v>547</v>
       </c>
       <c r="AN96" t="s" s="2">
         <v>78</v>
@@ -13178,9 +13192,11 @@
     </row>
     <row r="97">
       <c r="A97" t="s" s="2">
-        <v>514</v>
-      </c>
-      <c r="B97" s="2"/>
+        <v>500</v>
+      </c>
+      <c r="B97" t="s" s="2">
+        <v>548</v>
+      </c>
       <c r="C97" t="s" s="2">
         <v>78</v>
       </c>
@@ -13201,18 +13217,20 @@
         <v>87</v>
       </c>
       <c r="J97" t="s" s="2">
-        <v>180</v>
+        <v>293</v>
       </c>
       <c r="K97" t="s" s="2">
-        <v>515</v>
+        <v>549</v>
       </c>
       <c r="L97" t="s" s="2">
-        <v>516</v>
+        <v>550</v>
       </c>
       <c r="M97" t="s" s="2">
-        <v>517</v>
-      </c>
-      <c r="N97" s="2"/>
+        <v>504</v>
+      </c>
+      <c r="N97" t="s" s="2">
+        <v>505</v>
+      </c>
       <c r="O97" t="s" s="2">
         <v>78</v>
       </c>
@@ -13236,13 +13254,11 @@
         <v>78</v>
       </c>
       <c r="W97" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="X97" t="s" s="2">
-        <v>78</v>
-      </c>
+        <v>110</v>
+      </c>
+      <c r="X97" s="2"/>
       <c r="Y97" t="s" s="2">
-        <v>78</v>
+        <v>551</v>
       </c>
       <c r="Z97" t="s" s="2">
         <v>78</v>
@@ -13260,13 +13276,13 @@
         <v>78</v>
       </c>
       <c r="AE97" t="s" s="2">
-        <v>518</v>
+        <v>299</v>
       </c>
       <c r="AF97" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AG97" t="s" s="2">
-        <v>86</v>
+        <v>80</v>
       </c>
       <c r="AH97" t="s" s="2">
         <v>78</v>
@@ -13278,13 +13294,13 @@
         <v>78</v>
       </c>
       <c r="AK97" t="s" s="2">
-        <v>519</v>
+        <v>300</v>
       </c>
       <c r="AL97" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AM97" t="s" s="2">
-        <v>520</v>
+        <v>301</v>
       </c>
       <c r="AN97" t="s" s="2">
         <v>78</v>
@@ -13292,7 +13308,7 @@
     </row>
     <row r="98">
       <c r="A98" t="s" s="2">
-        <v>521</v>
+        <v>507</v>
       </c>
       <c r="B98" s="2"/>
       <c r="C98" t="s" s="2">
@@ -13312,21 +13328,19 @@
         <v>78</v>
       </c>
       <c r="I98" t="s" s="2">
-        <v>87</v>
+        <v>78</v>
       </c>
       <c r="J98" t="s" s="2">
-        <v>106</v>
+        <v>180</v>
       </c>
       <c r="K98" t="s" s="2">
-        <v>522</v>
+        <v>181</v>
       </c>
       <c r="L98" t="s" s="2">
-        <v>523</v>
+        <v>182</v>
       </c>
       <c r="M98" s="2"/>
-      <c r="N98" t="s" s="2">
-        <v>524</v>
-      </c>
+      <c r="N98" s="2"/>
       <c r="O98" t="s" s="2">
         <v>78</v>
       </c>
@@ -13374,7 +13388,7 @@
         <v>78</v>
       </c>
       <c r="AE98" t="s" s="2">
-        <v>525</v>
+        <v>183</v>
       </c>
       <c r="AF98" t="s" s="2">
         <v>79</v>
@@ -13386,19 +13400,19 @@
         <v>78</v>
       </c>
       <c r="AI98" t="s" s="2">
-        <v>98</v>
+        <v>78</v>
       </c>
       <c r="AJ98" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AK98" t="s" s="2">
-        <v>526</v>
+        <v>184</v>
       </c>
       <c r="AL98" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AM98" t="s" s="2">
-        <v>527</v>
+        <v>78</v>
       </c>
       <c r="AN98" t="s" s="2">
         <v>78</v>
@@ -13406,18 +13420,18 @@
     </row>
     <row r="99">
       <c r="A99" t="s" s="2">
-        <v>528</v>
+        <v>508</v>
       </c>
       <c r="B99" s="2"/>
       <c r="C99" t="s" s="2">
-        <v>78</v>
+        <v>160</v>
       </c>
       <c r="D99" s="2"/>
       <c r="E99" t="s" s="2">
         <v>79</v>
       </c>
       <c r="F99" t="s" s="2">
-        <v>86</v>
+        <v>80</v>
       </c>
       <c r="G99" t="s" s="2">
         <v>78</v>
@@ -13426,21 +13440,21 @@
         <v>78</v>
       </c>
       <c r="I99" t="s" s="2">
-        <v>87</v>
+        <v>78</v>
       </c>
       <c r="J99" t="s" s="2">
-        <v>180</v>
+        <v>131</v>
       </c>
       <c r="K99" t="s" s="2">
-        <v>529</v>
+        <v>186</v>
       </c>
       <c r="L99" t="s" s="2">
-        <v>530</v>
-      </c>
-      <c r="M99" s="2"/>
-      <c r="N99" t="s" s="2">
-        <v>531</v>
-      </c>
+        <v>187</v>
+      </c>
+      <c r="M99" t="s" s="2">
+        <v>163</v>
+      </c>
+      <c r="N99" s="2"/>
       <c r="O99" t="s" s="2">
         <v>78</v>
       </c>
@@ -13476,43 +13490,43 @@
         <v>78</v>
       </c>
       <c r="AA99" t="s" s="2">
-        <v>78</v>
+        <v>134</v>
       </c>
       <c r="AB99" t="s" s="2">
-        <v>78</v>
+        <v>188</v>
       </c>
       <c r="AC99" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AD99" t="s" s="2">
-        <v>78</v>
+        <v>135</v>
       </c>
       <c r="AE99" t="s" s="2">
-        <v>532</v>
+        <v>189</v>
       </c>
       <c r="AF99" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AG99" t="s" s="2">
-        <v>86</v>
+        <v>80</v>
       </c>
       <c r="AH99" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AI99" t="s" s="2">
-        <v>98</v>
+        <v>137</v>
       </c>
       <c r="AJ99" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AK99" t="s" s="2">
-        <v>533</v>
+        <v>184</v>
       </c>
       <c r="AL99" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AM99" t="s" s="2">
-        <v>534</v>
+        <v>78</v>
       </c>
       <c r="AN99" t="s" s="2">
         <v>78</v>
@@ -13520,7 +13534,7 @@
     </row>
     <row r="100">
       <c r="A100" t="s" s="2">
-        <v>535</v>
+        <v>509</v>
       </c>
       <c r="B100" s="2"/>
       <c r="C100" t="s" s="2">
@@ -13528,7 +13542,7 @@
       </c>
       <c r="D100" s="2"/>
       <c r="E100" t="s" s="2">
-        <v>79</v>
+        <v>86</v>
       </c>
       <c r="F100" t="s" s="2">
         <v>86</v>
@@ -13543,26 +13557,26 @@
         <v>87</v>
       </c>
       <c r="J100" t="s" s="2">
-        <v>536</v>
+        <v>100</v>
       </c>
       <c r="K100" t="s" s="2">
-        <v>537</v>
+        <v>510</v>
       </c>
       <c r="L100" t="s" s="2">
-        <v>538</v>
+        <v>511</v>
       </c>
       <c r="M100" t="s" s="2">
-        <v>539</v>
+        <v>512</v>
       </c>
       <c r="N100" t="s" s="2">
-        <v>540</v>
+        <v>513</v>
       </c>
       <c r="O100" t="s" s="2">
         <v>78</v>
       </c>
       <c r="P100" s="2"/>
       <c r="Q100" t="s" s="2">
-        <v>78</v>
+        <v>552</v>
       </c>
       <c r="R100" t="s" s="2">
         <v>78</v>
@@ -13604,7 +13618,7 @@
         <v>78</v>
       </c>
       <c r="AE100" t="s" s="2">
-        <v>541</v>
+        <v>515</v>
       </c>
       <c r="AF100" t="s" s="2">
         <v>79</v>
@@ -13622,13 +13636,13 @@
         <v>78</v>
       </c>
       <c r="AK100" t="s" s="2">
-        <v>542</v>
+        <v>516</v>
       </c>
       <c r="AL100" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AM100" t="s" s="2">
-        <v>543</v>
+        <v>517</v>
       </c>
       <c r="AN100" t="s" s="2">
         <v>78</v>
@@ -13636,7 +13650,7 @@
     </row>
     <row r="101">
       <c r="A101" t="s" s="2">
-        <v>549</v>
+        <v>518</v>
       </c>
       <c r="B101" s="2"/>
       <c r="C101" t="s" s="2">
@@ -13662,17 +13676,15 @@
         <v>180</v>
       </c>
       <c r="K101" t="s" s="2">
-        <v>550</v>
+        <v>519</v>
       </c>
       <c r="L101" t="s" s="2">
-        <v>551</v>
+        <v>520</v>
       </c>
       <c r="M101" t="s" s="2">
-        <v>552</v>
-      </c>
-      <c r="N101" t="s" s="2">
-        <v>553</v>
-      </c>
+        <v>521</v>
+      </c>
+      <c r="N101" s="2"/>
       <c r="O101" t="s" s="2">
         <v>78</v>
       </c>
@@ -13720,7 +13732,7 @@
         <v>78</v>
       </c>
       <c r="AE101" t="s" s="2">
-        <v>465</v>
+        <v>522</v>
       </c>
       <c r="AF101" t="s" s="2">
         <v>79</v>
@@ -13738,13 +13750,13 @@
         <v>78</v>
       </c>
       <c r="AK101" t="s" s="2">
-        <v>466</v>
+        <v>523</v>
       </c>
       <c r="AL101" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AM101" t="s" s="2">
-        <v>467</v>
+        <v>524</v>
       </c>
       <c r="AN101" t="s" s="2">
         <v>78</v>
@@ -13752,7 +13764,7 @@
     </row>
     <row r="102">
       <c r="A102" t="s" s="2">
-        <v>554</v>
+        <v>525</v>
       </c>
       <c r="B102" s="2"/>
       <c r="C102" t="s" s="2">
@@ -13772,21 +13784,21 @@
         <v>78</v>
       </c>
       <c r="I102" t="s" s="2">
-        <v>78</v>
+        <v>87</v>
       </c>
       <c r="J102" t="s" s="2">
-        <v>555</v>
+        <v>106</v>
       </c>
       <c r="K102" t="s" s="2">
-        <v>556</v>
+        <v>526</v>
       </c>
       <c r="L102" t="s" s="2">
-        <v>557</v>
-      </c>
-      <c r="M102" t="s" s="2">
-        <v>558</v>
-      </c>
-      <c r="N102" s="2"/>
+        <v>527</v>
+      </c>
+      <c r="M102" s="2"/>
+      <c r="N102" t="s" s="2">
+        <v>528</v>
+      </c>
       <c r="O102" t="s" s="2">
         <v>78</v>
       </c>
@@ -13834,7 +13846,7 @@
         <v>78</v>
       </c>
       <c r="AE102" t="s" s="2">
-        <v>554</v>
+        <v>529</v>
       </c>
       <c r="AF102" t="s" s="2">
         <v>79</v>
@@ -13843,22 +13855,22 @@
         <v>86</v>
       </c>
       <c r="AH102" t="s" s="2">
-        <v>142</v>
+        <v>78</v>
       </c>
       <c r="AI102" t="s" s="2">
-        <v>559</v>
+        <v>98</v>
       </c>
       <c r="AJ102" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AK102" t="s" s="2">
-        <v>560</v>
+        <v>530</v>
       </c>
       <c r="AL102" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AM102" t="s" s="2">
-        <v>561</v>
+        <v>531</v>
       </c>
       <c r="AN102" t="s" s="2">
         <v>78</v>
@@ -13866,7 +13878,7 @@
     </row>
     <row r="103">
       <c r="A103" t="s" s="2">
-        <v>562</v>
+        <v>532</v>
       </c>
       <c r="B103" s="2"/>
       <c r="C103" t="s" s="2">
@@ -13886,21 +13898,21 @@
         <v>78</v>
       </c>
       <c r="I103" t="s" s="2">
-        <v>78</v>
+        <v>87</v>
       </c>
       <c r="J103" t="s" s="2">
-        <v>563</v>
+        <v>180</v>
       </c>
       <c r="K103" t="s" s="2">
-        <v>564</v>
+        <v>533</v>
       </c>
       <c r="L103" t="s" s="2">
-        <v>565</v>
-      </c>
-      <c r="M103" t="s" s="2">
-        <v>566</v>
-      </c>
-      <c r="N103" s="2"/>
+        <v>534</v>
+      </c>
+      <c r="M103" s="2"/>
+      <c r="N103" t="s" s="2">
+        <v>535</v>
+      </c>
       <c r="O103" t="s" s="2">
         <v>78</v>
       </c>
@@ -13936,17 +13948,19 @@
         <v>78</v>
       </c>
       <c r="AA103" t="s" s="2">
-        <v>296</v>
-      </c>
-      <c r="AB103" s="2"/>
+        <v>78</v>
+      </c>
+      <c r="AB103" t="s" s="2">
+        <v>78</v>
+      </c>
       <c r="AC103" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AD103" t="s" s="2">
-        <v>297</v>
+        <v>78</v>
       </c>
       <c r="AE103" t="s" s="2">
-        <v>562</v>
+        <v>536</v>
       </c>
       <c r="AF103" t="s" s="2">
         <v>79</v>
@@ -13964,13 +13978,13 @@
         <v>78</v>
       </c>
       <c r="AK103" t="s" s="2">
-        <v>567</v>
+        <v>537</v>
       </c>
       <c r="AL103" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AM103" t="s" s="2">
-        <v>568</v>
+        <v>538</v>
       </c>
       <c r="AN103" t="s" s="2">
         <v>78</v>
@@ -13978,11 +13992,9 @@
     </row>
     <row r="104">
       <c r="A104" t="s" s="2">
-        <v>562</v>
-      </c>
-      <c r="B104" t="s" s="2">
-        <v>569</v>
-      </c>
+        <v>539</v>
+      </c>
+      <c r="B104" s="2"/>
       <c r="C104" t="s" s="2">
         <v>78</v>
       </c>
@@ -14000,21 +14012,23 @@
         <v>78</v>
       </c>
       <c r="I104" t="s" s="2">
-        <v>78</v>
+        <v>87</v>
       </c>
       <c r="J104" t="s" s="2">
-        <v>570</v>
+        <v>540</v>
       </c>
       <c r="K104" t="s" s="2">
-        <v>571</v>
+        <v>541</v>
       </c>
       <c r="L104" t="s" s="2">
-        <v>571</v>
+        <v>542</v>
       </c>
       <c r="M104" t="s" s="2">
-        <v>572</v>
-      </c>
-      <c r="N104" s="2"/>
+        <v>543</v>
+      </c>
+      <c r="N104" t="s" s="2">
+        <v>544</v>
+      </c>
       <c r="O104" t="s" s="2">
         <v>78</v>
       </c>
@@ -14062,7 +14076,7 @@
         <v>78</v>
       </c>
       <c r="AE104" t="s" s="2">
-        <v>562</v>
+        <v>545</v>
       </c>
       <c r="AF104" t="s" s="2">
         <v>79</v>
@@ -14071,22 +14085,22 @@
         <v>86</v>
       </c>
       <c r="AH104" t="s" s="2">
-        <v>142</v>
+        <v>78</v>
       </c>
       <c r="AI104" t="s" s="2">
-        <v>573</v>
+        <v>98</v>
       </c>
       <c r="AJ104" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AK104" t="s" s="2">
-        <v>574</v>
+        <v>546</v>
       </c>
       <c r="AL104" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AM104" t="s" s="2">
-        <v>129</v>
+        <v>547</v>
       </c>
       <c r="AN104" t="s" s="2">
         <v>78</v>
@@ -14094,11 +14108,9 @@
     </row>
     <row r="105">
       <c r="A105" t="s" s="2">
-        <v>562</v>
-      </c>
-      <c r="B105" t="s" s="2">
-        <v>575</v>
-      </c>
+        <v>553</v>
+      </c>
+      <c r="B105" s="2"/>
       <c r="C105" t="s" s="2">
         <v>78</v>
       </c>
@@ -14116,21 +14128,23 @@
         <v>78</v>
       </c>
       <c r="I105" t="s" s="2">
-        <v>78</v>
+        <v>87</v>
       </c>
       <c r="J105" t="s" s="2">
-        <v>576</v>
+        <v>180</v>
       </c>
       <c r="K105" t="s" s="2">
-        <v>577</v>
+        <v>554</v>
       </c>
       <c r="L105" t="s" s="2">
-        <v>577</v>
+        <v>555</v>
       </c>
       <c r="M105" t="s" s="2">
-        <v>578</v>
-      </c>
-      <c r="N105" s="2"/>
+        <v>556</v>
+      </c>
+      <c r="N105" t="s" s="2">
+        <v>557</v>
+      </c>
       <c r="O105" t="s" s="2">
         <v>78</v>
       </c>
@@ -14178,7 +14192,7 @@
         <v>78</v>
       </c>
       <c r="AE105" t="s" s="2">
-        <v>562</v>
+        <v>307</v>
       </c>
       <c r="AF105" t="s" s="2">
         <v>79</v>
@@ -14187,22 +14201,22 @@
         <v>86</v>
       </c>
       <c r="AH105" t="s" s="2">
-        <v>142</v>
+        <v>78</v>
       </c>
       <c r="AI105" t="s" s="2">
-        <v>559</v>
+        <v>98</v>
       </c>
       <c r="AJ105" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AK105" t="s" s="2">
-        <v>560</v>
+        <v>308</v>
       </c>
       <c r="AL105" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AM105" t="s" s="2">
-        <v>561</v>
+        <v>309</v>
       </c>
       <c r="AN105" t="s" s="2">
         <v>78</v>
@@ -14210,7 +14224,7 @@
     </row>
     <row r="106">
       <c r="A106" t="s" s="2">
-        <v>579</v>
+        <v>558</v>
       </c>
       <c r="B106" s="2"/>
       <c r="C106" t="s" s="2">
@@ -14221,7 +14235,7 @@
         <v>79</v>
       </c>
       <c r="F106" t="s" s="2">
-        <v>80</v>
+        <v>86</v>
       </c>
       <c r="G106" t="s" s="2">
         <v>78</v>
@@ -14233,16 +14247,16 @@
         <v>78</v>
       </c>
       <c r="J106" t="s" s="2">
-        <v>580</v>
+        <v>559</v>
       </c>
       <c r="K106" t="s" s="2">
-        <v>581</v>
+        <v>560</v>
       </c>
       <c r="L106" t="s" s="2">
-        <v>582</v>
+        <v>561</v>
       </c>
       <c r="M106" t="s" s="2">
-        <v>583</v>
+        <v>562</v>
       </c>
       <c r="N106" s="2"/>
       <c r="O106" t="s" s="2">
@@ -14292,33 +14306,491 @@
         <v>78</v>
       </c>
       <c r="AE106" t="s" s="2">
+        <v>558</v>
+      </c>
+      <c r="AF106" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AG106" t="s" s="2">
+        <v>86</v>
+      </c>
+      <c r="AH106" t="s" s="2">
+        <v>142</v>
+      </c>
+      <c r="AI106" t="s" s="2">
+        <v>563</v>
+      </c>
+      <c r="AJ106" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AK106" t="s" s="2">
+        <v>564</v>
+      </c>
+      <c r="AL106" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AM106" t="s" s="2">
+        <v>565</v>
+      </c>
+      <c r="AN106" t="s" s="2">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="107">
+      <c r="A107" t="s" s="2">
+        <v>566</v>
+      </c>
+      <c r="B107" s="2"/>
+      <c r="C107" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="D107" s="2"/>
+      <c r="E107" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="F107" t="s" s="2">
+        <v>86</v>
+      </c>
+      <c r="G107" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="H107" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="I107" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="J107" t="s" s="2">
+        <v>567</v>
+      </c>
+      <c r="K107" t="s" s="2">
+        <v>568</v>
+      </c>
+      <c r="L107" t="s" s="2">
+        <v>569</v>
+      </c>
+      <c r="M107" t="s" s="2">
+        <v>570</v>
+      </c>
+      <c r="N107" s="2"/>
+      <c r="O107" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="P107" s="2"/>
+      <c r="Q107" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="R107" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="S107" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="T107" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="U107" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="V107" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="W107" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="X107" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="Y107" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="Z107" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AA107" t="s" s="2">
+        <v>315</v>
+      </c>
+      <c r="AB107" s="2"/>
+      <c r="AC107" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AD107" t="s" s="2">
+        <v>316</v>
+      </c>
+      <c r="AE107" t="s" s="2">
+        <v>566</v>
+      </c>
+      <c r="AF107" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AG107" t="s" s="2">
+        <v>86</v>
+      </c>
+      <c r="AH107" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AI107" t="s" s="2">
+        <v>98</v>
+      </c>
+      <c r="AJ107" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AK107" t="s" s="2">
+        <v>571</v>
+      </c>
+      <c r="AL107" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AM107" t="s" s="2">
+        <v>572</v>
+      </c>
+      <c r="AN107" t="s" s="2">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="108">
+      <c r="A108" t="s" s="2">
+        <v>566</v>
+      </c>
+      <c r="B108" t="s" s="2">
+        <v>573</v>
+      </c>
+      <c r="C108" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="D108" s="2"/>
+      <c r="E108" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="F108" t="s" s="2">
+        <v>86</v>
+      </c>
+      <c r="G108" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="H108" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="I108" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="J108" t="s" s="2">
+        <v>574</v>
+      </c>
+      <c r="K108" t="s" s="2">
+        <v>575</v>
+      </c>
+      <c r="L108" t="s" s="2">
+        <v>575</v>
+      </c>
+      <c r="M108" t="s" s="2">
+        <v>576</v>
+      </c>
+      <c r="N108" s="2"/>
+      <c r="O108" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="P108" s="2"/>
+      <c r="Q108" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="R108" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="S108" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="T108" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="U108" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="V108" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="W108" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="X108" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="Y108" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="Z108" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AA108" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AB108" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AC108" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AD108" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AE108" t="s" s="2">
+        <v>566</v>
+      </c>
+      <c r="AF108" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AG108" t="s" s="2">
+        <v>86</v>
+      </c>
+      <c r="AH108" t="s" s="2">
+        <v>142</v>
+      </c>
+      <c r="AI108" t="s" s="2">
+        <v>577</v>
+      </c>
+      <c r="AJ108" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AK108" t="s" s="2">
+        <v>578</v>
+      </c>
+      <c r="AL108" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AM108" t="s" s="2">
+        <v>129</v>
+      </c>
+      <c r="AN108" t="s" s="2">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="109">
+      <c r="A109" t="s" s="2">
+        <v>566</v>
+      </c>
+      <c r="B109" t="s" s="2">
         <v>579</v>
       </c>
-      <c r="AF106" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AG106" t="s" s="2">
+      <c r="C109" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="D109" s="2"/>
+      <c r="E109" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="F109" t="s" s="2">
+        <v>86</v>
+      </c>
+      <c r="G109" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="H109" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="I109" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="J109" t="s" s="2">
+        <v>580</v>
+      </c>
+      <c r="K109" t="s" s="2">
+        <v>581</v>
+      </c>
+      <c r="L109" t="s" s="2">
+        <v>581</v>
+      </c>
+      <c r="M109" t="s" s="2">
+        <v>582</v>
+      </c>
+      <c r="N109" s="2"/>
+      <c r="O109" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="P109" s="2"/>
+      <c r="Q109" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="R109" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="S109" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="T109" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="U109" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="V109" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="W109" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="X109" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="Y109" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="Z109" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AA109" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AB109" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AC109" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AD109" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AE109" t="s" s="2">
+        <v>566</v>
+      </c>
+      <c r="AF109" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AG109" t="s" s="2">
+        <v>86</v>
+      </c>
+      <c r="AH109" t="s" s="2">
+        <v>142</v>
+      </c>
+      <c r="AI109" t="s" s="2">
+        <v>563</v>
+      </c>
+      <c r="AJ109" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AK109" t="s" s="2">
+        <v>564</v>
+      </c>
+      <c r="AL109" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AM109" t="s" s="2">
+        <v>565</v>
+      </c>
+      <c r="AN109" t="s" s="2">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="110">
+      <c r="A110" t="s" s="2">
+        <v>583</v>
+      </c>
+      <c r="B110" s="2"/>
+      <c r="C110" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="D110" s="2"/>
+      <c r="E110" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="F110" t="s" s="2">
         <v>80</v>
       </c>
-      <c r="AH106" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AI106" t="s" s="2">
+      <c r="G110" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="H110" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="I110" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="J110" t="s" s="2">
+        <v>584</v>
+      </c>
+      <c r="K110" t="s" s="2">
+        <v>585</v>
+      </c>
+      <c r="L110" t="s" s="2">
+        <v>586</v>
+      </c>
+      <c r="M110" t="s" s="2">
+        <v>587</v>
+      </c>
+      <c r="N110" s="2"/>
+      <c r="O110" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="P110" s="2"/>
+      <c r="Q110" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="R110" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="S110" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="T110" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="U110" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="V110" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="W110" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="X110" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="Y110" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="Z110" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AA110" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AB110" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AC110" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AD110" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AE110" t="s" s="2">
+        <v>583</v>
+      </c>
+      <c r="AF110" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AG110" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AH110" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AI110" t="s" s="2">
         <v>98</v>
       </c>
-      <c r="AJ106" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AK106" t="s" s="2">
-        <v>584</v>
-      </c>
-      <c r="AL106" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AM106" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AN106" t="s" s="2">
+      <c r="AJ110" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AK110" t="s" s="2">
+        <v>588</v>
+      </c>
+      <c r="AL110" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AM110" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AN110" t="s" s="2">
         <v>78</v>
       </c>
     </row>
